--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43735</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43644</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43553</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43371</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43280</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43189</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43007</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>207300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>237800</v>
+      </c>
+      <c r="F8" s="3">
         <v>182700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>174700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>166400</v>
       </c>
-      <c r="G8" s="3">
-        <v>500900</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>220900</v>
+      </c>
+      <c r="J8" s="3">
         <v>157100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>178600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>179400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>473900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>447000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>449000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>435900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>433100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>139600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>165200</v>
+      </c>
+      <c r="F9" s="3">
         <v>121500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>122100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>111900</v>
       </c>
-      <c r="G9" s="3">
-        <v>349200</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>147900</v>
+      </c>
+      <c r="J9" s="3">
         <v>109400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>125200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>126200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>325600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>308600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>314500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>311600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>297700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>72600</v>
+      </c>
+      <c r="F10" s="3">
         <v>61200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>52600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>54500</v>
       </c>
-      <c r="G10" s="3">
-        <v>151700</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J10" s="3">
         <v>47700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>53400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>53200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>148300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>138400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>134500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>124300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>135400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>300</v>
+        <v>8200</v>
       </c>
       <c r="E14" s="3">
-        <v>200</v>
+        <v>5500</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
       </c>
       <c r="G14" s="3">
+        <v>200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>300</v>
+      </c>
+      <c r="I14" s="3">
         <v>8400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>11300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>208800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>220200</v>
+      </c>
+      <c r="F17" s="3">
         <v>166100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>164100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>154100</v>
       </c>
-      <c r="G17" s="3">
-        <v>466700</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>196700</v>
+      </c>
+      <c r="J17" s="3">
         <v>164100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>171400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>170800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>432500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>417400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>422500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>422500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>406400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F18" s="3">
         <v>16600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>10600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>12300</v>
       </c>
-      <c r="G18" s="3">
-        <v>34200</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>41400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>29600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>26500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>13400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>26700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-5100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-5200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F21" s="3">
         <v>19400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>8300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>17300</v>
       </c>
-      <c r="G21" s="3">
-        <v>53600</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>29300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>8400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>17300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>47900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>36100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>31900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>21000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>33500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F23" s="3">
         <v>12400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>7300</v>
       </c>
-      <c r="G23" s="3">
-        <v>32600</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-8900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>37300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>25500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>21300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>10200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>22600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>9200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>7500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F26" s="3">
         <v>10100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5800</v>
       </c>
-      <c r="G26" s="3">
-        <v>23600</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>23500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>16300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>13500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>6300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>15100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F27" s="3">
         <v>10100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>5800</v>
       </c>
-      <c r="G27" s="3">
-        <v>23600</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>23500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>16300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>13500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>6300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>15100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,52 +1689,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>700</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F29" s="3">
         <v>132600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>7100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>8300</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J29" s="3">
         <v>10900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>10300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>9100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>5100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>5200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F33" s="3">
         <v>142800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>13500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>14100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>23600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>15100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>14100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>13800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>16300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>13500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>6300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>15100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F35" s="3">
         <v>142800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>13500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>14100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>23600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>15100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>14100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>13800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>16300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>13500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>6300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>15100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43735</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43644</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43553</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43371</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43280</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43189</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43007</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>270700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>471500</v>
+      </c>
+      <c r="F41" s="3">
         <v>510000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>17000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>28400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>25900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>26200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>27600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>30100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>36900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>35400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>27800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>24700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>41200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,213 +2234,243 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>320900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>292200</v>
+      </c>
+      <c r="F43" s="3">
         <v>256800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>230200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>390400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>256300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>373200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>382700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>401900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>316300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>281100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>275100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>261900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>236900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>193200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>156400</v>
+      </c>
+      <c r="F44" s="3">
         <v>173100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>163000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>313900</v>
       </c>
-      <c r="G44" s="3">
-        <v>350100</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
+        <v>294600</v>
+      </c>
+      <c r="J44" s="3">
         <v>303100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>291100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>296600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>367400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>385700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>392600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>390100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>393800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F45" s="3">
         <v>13900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>375800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>36300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>359300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>35400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>32200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>33000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>27200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>30700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>29300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>28400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>26600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>825200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>936500</v>
+      </c>
+      <c r="F46" s="3">
         <v>953800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>786000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>769000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>773100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>738000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>733500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>761700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>747900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>732900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>724800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>705100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>698600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F47" s="3">
         <v>7800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>9200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>9500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>10700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>12100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>12800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>12600</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2275,96 +2484,114 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>233800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>155600</v>
+      </c>
+      <c r="F48" s="3">
         <v>152200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>154600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>271800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>137100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>189100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>188200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>186700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>185500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>183100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>182300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>178000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>176500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>444500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>248800</v>
+      </c>
+      <c r="F49" s="3">
         <v>245100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>251400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>431700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>254700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>442800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>457500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>470000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>468800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>469900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>468200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>462600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>464300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F52" s="3">
         <v>71400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>363700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>54000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>298500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>49600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>50200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>54900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>53300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>73500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>73900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>83500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>86900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1577600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1418900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1430300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1564800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1536000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1474100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1431600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1442200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1485800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1455500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1459400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1449100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1429200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1426300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>70900</v>
+      </c>
+      <c r="F57" s="3">
         <v>57100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>54100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>149100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>56800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>136000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>136100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>139200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>127600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>112000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>118900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>112100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>116700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>129600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>12100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>11200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>8800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>8100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>19000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>18900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>120900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>119500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>133100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>131300</v>
+      </c>
+      <c r="F59" s="3">
         <v>179500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>237900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>157200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>285300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>128700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>109900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>101900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>111200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>126400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>106800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>115900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>117700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>117700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>198800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>204000</v>
+      </c>
+      <c r="F60" s="3">
         <v>238600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>421600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>318400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>298500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>273400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>254100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>248500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>246300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>257300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>244600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>348900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>353900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>383600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>181600</v>
+      </c>
+      <c r="F61" s="3">
         <v>186500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>186300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>280800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>290500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>295600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>316200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>341600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>391700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>394500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>414800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>310100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>296600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>197900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>210100</v>
+      </c>
+      <c r="F62" s="3">
         <v>216400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>298800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>294600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>305800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>224300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>229100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>253300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>181800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>188900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>189300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>196400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>208200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>780300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>595700</v>
+      </c>
+      <c r="F66" s="3">
         <v>641400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>906700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>893800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>840900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>793400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>799400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>843400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>819800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>840700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>848700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>855400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>858700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>815400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>820700</v>
+      </c>
+      <c r="F72" s="3">
         <v>786800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>649600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>641700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>610100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>592100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>596300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>586800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>587900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>579600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>568900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>561100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>560200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>797200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>823200</v>
+      </c>
+      <c r="F76" s="3">
         <v>788900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>658200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>642200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>633200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>638300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>642800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>642300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>635700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>618700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>600400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>573800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>567600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43735</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43644</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43553</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43371</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43280</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43189</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43007</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F81" s="3">
         <v>142800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>13500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>14100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>23600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>15100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>14100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>13800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>16300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>13500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>6300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>15100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F83" s="3">
         <v>6900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>10000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>10500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>10400</v>
       </c>
       <c r="I83" s="3">
         <v>10500</v>
       </c>
       <c r="J83" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="L83" s="3">
         <v>10700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>10600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>10600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>10200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>11100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>11200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="F89" s="3">
         <v>2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-20900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>22600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>35000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>33700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>36800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>56900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>36100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>44000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>18300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-18400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>37700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-5800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-4700</v>
       </c>
       <c r="M91" s="3">
         <v>-7800</v>
       </c>
       <c r="N91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="P91" s="3">
         <v>-14800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-11700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-303800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F94" s="3">
         <v>643100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-8500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-8100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-8900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-8100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-8800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-8300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-6800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4181,19 +4648,25 @@
         <v>-5600</v>
       </c>
       <c r="M96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="O96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-4900</v>
       </c>
       <c r="P96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-132300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>19900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-13700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-27700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-26000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-30000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-57700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-26200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-31000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-7500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>10000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-14200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-200</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
       </c>
       <c r="G101" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
       </c>
       <c r="I101" s="3">
+        <v>500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-1100</v>
       </c>
       <c r="P101" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R101" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-176100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="F102" s="3">
         <v>512900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-9400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>7700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-16500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>15700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,243 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E7" s="2">
         <v>43924</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43644</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43553</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43371</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43280</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43189</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43007</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>177900</v>
+      </c>
+      <c r="E8" s="3">
         <v>207300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>237800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>182700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>174700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>166400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>220900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>157100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>178600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>179400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>473900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>447000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>449000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>435900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>433100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>121200</v>
+      </c>
+      <c r="E9" s="3">
         <v>139600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>165200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>121500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>122100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>111900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>147900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>109400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>125200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>126200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>325600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>308600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>314500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>311600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>297700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E10" s="3">
         <v>67700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>72600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>61200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>52600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>54500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>73000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>47700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>53400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>53200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>148300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>138400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>134500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>124300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>135400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,47 +1024,50 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E14" s="3">
         <v>8200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1056,10 +1075,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>177600</v>
+      </c>
+      <c r="E17" s="3">
         <v>208800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>220200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>166100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>164100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>154100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>196700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>164100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>171400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>170800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>432500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>417400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>422500</v>
       </c>
       <c r="P17" s="3">
         <v>422500</v>
       </c>
       <c r="Q17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="R17" s="3">
         <v>406400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>41400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>29600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1277,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-4100</v>
       </c>
       <c r="N20" s="3">
         <v>-4100</v>
       </c>
       <c r="O20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-5200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E21" s="3">
         <v>8700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>47900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>33500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1434,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>37300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>25500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-19200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>34200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>34200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,43 +1752,46 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>5300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>132600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>7100</v>
       </c>
-      <c r="H29" s="3">
-        <v>8300</v>
-      </c>
       <c r="I29" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J29" s="3">
         <v>7800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>10900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>10300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>9100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1739,14 +1799,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>4100</v>
       </c>
       <c r="N32" s="3">
         <v>4100</v>
       </c>
       <c r="O32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P32" s="3">
         <v>5200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>39500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>142800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>15100</v>
+      </c>
+      <c r="M33" s="3">
         <v>14100</v>
       </c>
-      <c r="I33" s="3">
-        <v>23600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
+        <v>13800</v>
+      </c>
+      <c r="O33" s="3">
+        <v>16300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>13500</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R33" s="3">
         <v>15100</v>
       </c>
-      <c r="L33" s="3">
-        <v>14100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>13800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>16300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>13500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>6300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>15100</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>39500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>142800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>15100</v>
+      </c>
+      <c r="M35" s="3">
         <v>14100</v>
       </c>
-      <c r="I35" s="3">
-        <v>23600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
+        <v>13800</v>
+      </c>
+      <c r="O35" s="3">
+        <v>16300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>13500</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R35" s="3">
         <v>15100</v>
       </c>
-      <c r="L35" s="3">
-        <v>14100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>13800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>16300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>13500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>6300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>15100</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E38" s="2">
         <v>43924</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43644</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43553</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43371</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43280</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43189</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43007</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>235600</v>
+      </c>
+      <c r="E41" s="3">
         <v>270700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>471500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>510000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>41200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,240 +2329,255 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>326200</v>
+      </c>
+      <c r="E43" s="3">
         <v>320900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>292200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>256800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>230200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>390400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>256300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>373200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>382700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>401900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>316300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>281100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>275100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>261900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>236900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>207300</v>
+      </c>
+      <c r="E44" s="3">
         <v>193200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>156400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>173100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>163000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>313900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>294600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>303100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>291100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>296600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>367400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>385700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>392600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>390100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>393800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E45" s="3">
         <v>40400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>375800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>36300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>359300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>35400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>808900</v>
+      </c>
+      <c r="E46" s="3">
         <v>825200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>936500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>953800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>786000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>769000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>773100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>738000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>733500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>761700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>747900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>732900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>724800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>705100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>698600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E47" s="3">
         <v>6700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>12100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12600</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2490,108 +2594,117 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>231900</v>
+      </c>
+      <c r="E48" s="3">
         <v>233800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>155600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>152200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>154600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>271800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>137100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>189100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>188200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>186700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>185500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>183100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>182300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>178000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>176500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>446400</v>
+      </c>
+      <c r="E49" s="3">
         <v>444500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>248800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>245100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>251400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>431700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>254700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>442800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>457500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>470000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>468800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>469900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>468200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>462600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>464300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E52" s="3">
         <v>67500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>72000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>363700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>54000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>298500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>49600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>54900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>73500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>73900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>83500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>86900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1560100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1577600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1418900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1430300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1564800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1536000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1474100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1431600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1442200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1485800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1455500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1459400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1449100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1429200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1426300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3009,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E57" s="3">
         <v>65700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>70900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>149100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>56800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>136000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>136100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>139200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>127600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>112000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>118900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>112100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>116700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>129600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>7500</v>
       </c>
       <c r="M58" s="3">
         <v>7500</v>
       </c>
       <c r="N58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="O58" s="3">
         <v>19000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>120900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>119500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E59" s="3">
         <v>133100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>131300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>179500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>237900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>157200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>285300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>128700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>109900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>101900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>111200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>126400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>106800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>115900</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>117700</v>
       </c>
       <c r="R59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>198100</v>
+      </c>
+      <c r="E60" s="3">
         <v>198800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>204000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>238600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>421600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>318400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>298500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>273400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>254100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>248500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>246300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>257300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>244600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>348900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>353900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>384600</v>
+      </c>
+      <c r="E61" s="3">
         <v>383600</v>
       </c>
-      <c r="E61" s="3">
-        <v>181600</v>
-      </c>
       <c r="F61" s="3">
+        <v>187200</v>
+      </c>
+      <c r="G61" s="3">
         <v>186500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>186300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>280800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>290500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>295600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>316200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>341600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>391700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>394500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>414800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>310100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>296600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E62" s="3">
         <v>197900</v>
       </c>
-      <c r="E62" s="3">
-        <v>210100</v>
-      </c>
       <c r="F62" s="3">
+        <v>204600</v>
+      </c>
+      <c r="G62" s="3">
         <v>216400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>298800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>294600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>305800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>224300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>229100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>253300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>181800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>188900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>189300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>196400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>208200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>756700</v>
+      </c>
+      <c r="E66" s="3">
         <v>780300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>595700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>641400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>906700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>893800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>840900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>793400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>799400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>843400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>819800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>840700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>848700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>855400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>858700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>809800</v>
+      </c>
+      <c r="E72" s="3">
         <v>815400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>820700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>786800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>649600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>641700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>610100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>592100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>596300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>586800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>587900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>579600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>568900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>561100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>560200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>803400</v>
+      </c>
+      <c r="E76" s="3">
         <v>797200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>823200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>788900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>658200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>642200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>633200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>638300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>642800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>642300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>635700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>618700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>600400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>573800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>567600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E80" s="2">
         <v>43924</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43644</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43553</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43371</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43280</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43189</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43007</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>39500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>142800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>15100</v>
+      </c>
+      <c r="M81" s="3">
         <v>14100</v>
       </c>
-      <c r="I81" s="3">
-        <v>23600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
+        <v>13800</v>
+      </c>
+      <c r="O81" s="3">
+        <v>16300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>13500</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R81" s="3">
         <v>15100</v>
       </c>
-      <c r="L81" s="3">
-        <v>14100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>13800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>16300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>13500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>6300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>15100</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E83" s="3">
         <v>9500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>10600</v>
       </c>
       <c r="N83" s="3">
         <v>10600</v>
       </c>
       <c r="O83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="P83" s="3">
         <v>10200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>11200</v>
       </c>
       <c r="R83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-55400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>35000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>33700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>36800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>56900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>36100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>44000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-303800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>643100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,13 +4847,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="E96" s="3">
         <v>-5600</v>
@@ -4654,10 +4887,10 @@
         <v>-5600</v>
       </c>
       <c r="O96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="P96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-4900</v>
       </c>
       <c r="Q96" s="3">
         <v>-4900</v>
@@ -4665,8 +4898,11 @@
       <c r="R96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E100" s="3">
         <v>182900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-18600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-132300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>19900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-27700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-30000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-57700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-176100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-60300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>512900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,255 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E7" s="2">
         <v>44015</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43924</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43644</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43553</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43371</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43280</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43189</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43007</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E8" s="3">
         <v>177900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>207300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>237800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>182700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>174700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>166400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>220900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>157100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>178600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>179400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>473900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>447000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>449000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>435900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>433100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E9" s="3">
         <v>121200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>139600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>165200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>121500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>122100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>111900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>147900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>109400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>125200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>126200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>325600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>308600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>314500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>311600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>297700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E10" s="3">
         <v>56700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>67700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>72600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>61200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>52600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>54500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>53400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>53200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>148300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>138400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>134500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>124300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>135400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,50 +1043,53 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E14" s="3">
         <v>11500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1078,10 +1097,13 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1176,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>251100</v>
+      </c>
+      <c r="E17" s="3">
         <v>177600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>208800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>220200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>166100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>164100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>154100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>196700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>164100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>171400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>170800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>432500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>417400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>422500</v>
       </c>
       <c r="Q17" s="3">
         <v>422500</v>
       </c>
       <c r="R17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="S17" s="3">
         <v>406400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>24200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>41400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,114 +1310,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-4100</v>
       </c>
       <c r="O20" s="3">
         <v>-4100</v>
       </c>
       <c r="P20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E21" s="3">
         <v>8900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>21500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>47900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>36100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>31900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>33500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,114 +1476,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>37300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>25500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-19200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1644,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>34200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1764,37 +1824,37 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>5300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>132600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>7100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>16600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>7800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>10900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>10300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>9100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1802,14 +1862,17 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1980,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>4100</v>
       </c>
       <c r="O32" s="3">
         <v>4100</v>
       </c>
       <c r="P32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>5200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>39500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>142800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>23600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2148,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>39500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>142800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>23600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E38" s="2">
         <v>44015</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43924</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43644</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43553</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43371</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43280</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43189</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43007</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,61 +2311,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>152300</v>
+      </c>
+      <c r="E41" s="3">
         <v>235600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>270700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>471500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>510000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>35400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,255 +2421,270 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>328600</v>
+      </c>
+      <c r="E43" s="3">
         <v>326200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>320900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>292200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>256800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>230200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>390400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>256300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>373200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>382700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>401900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>316300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>281100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>275100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>261900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>236900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>188200</v>
+      </c>
+      <c r="E44" s="3">
         <v>207300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>193200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>156400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>173100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>163000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>313900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>294600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>303100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>291100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>296600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>367400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>385700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>392600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>390100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>393800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E45" s="3">
         <v>39800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>375800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>36300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>359300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>33000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>29300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>26600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>708600</v>
+      </c>
+      <c r="E46" s="3">
         <v>808900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>825200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>936500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>953800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>786000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>769000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>773100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>738000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>733500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>761700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>747900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>732900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>724800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>705100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>698600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E47" s="3">
         <v>5900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12600</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2597,114 +2701,123 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>233300</v>
+      </c>
+      <c r="E48" s="3">
         <v>231900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>233800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>155600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>152200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>154600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>271800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>137100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>189100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>188200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>186700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>185500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>183100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>182300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>178000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>176500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>396800</v>
+      </c>
+      <c r="E49" s="3">
         <v>446400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>444500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>248800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>245100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>251400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>431700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>254700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>442800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>457500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>470000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>468800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>469900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>468200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>462600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>464300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2925,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E52" s="3">
         <v>67000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>67500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>72000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>71400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>363700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>54000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>298500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>49600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>54900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>53300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>73500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>73900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>83500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>86900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3037,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1411900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1560100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1577600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1418900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1430300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1564800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1536000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1474100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1431600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1442200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1485800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1455500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1459400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1449100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1429200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1426300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,61 +3139,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E57" s="3">
         <v>58300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>65700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>70900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>149100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>56800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>136000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>136100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>139200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>127600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>112000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>118900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>112100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>116700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3074,262 +3207,277 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>129600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>7500</v>
       </c>
       <c r="N58" s="3">
         <v>7500</v>
       </c>
       <c r="O58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="P58" s="3">
         <v>19000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>120900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>119500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E59" s="3">
         <v>139900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>133100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>131300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>179500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>237900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>157200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>285300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>128700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>109900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>101900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>111200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>126400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>106800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>115900</v>
-      </c>
-      <c r="R59" s="3">
-        <v>117700</v>
       </c>
       <c r="S59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>194300</v>
+      </c>
+      <c r="E60" s="3">
         <v>198100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>198800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>204000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>238600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>421600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>318400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>298500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>273400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>254100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>248500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>246300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>257300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>244600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>348900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>353900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>285600</v>
+      </c>
+      <c r="E61" s="3">
         <v>384600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>383600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>187200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>186500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>186300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>280800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>290500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>295600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>316200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>341600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>391700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>394500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>414800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>310100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>296600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E62" s="3">
         <v>173900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>197900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>204600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>216400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>298800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>294600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>305800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>224300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>229100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>253300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>181800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>188900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>189300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>196400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>208200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3641,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>641200</v>
+      </c>
+      <c r="E66" s="3">
         <v>756700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>780300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>595700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>641400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>906700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>893800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>840900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>793400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>799400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>843400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>819800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>840700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>848700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>855400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>858700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3943,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>765700</v>
+      </c>
+      <c r="E72" s="3">
         <v>809800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>815400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>820700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>786800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>649600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>641700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>610100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>592100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>596300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>586800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>587900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>579600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>568900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>561100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>560200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4167,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>770700</v>
+      </c>
+      <c r="E76" s="3">
         <v>803400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>797200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>823200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>788900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>658200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>642200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>633200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>638300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>642800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>642300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>635700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>618700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>600400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>573800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>567600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4279,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E80" s="2">
         <v>44015</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43924</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43644</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43553</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43371</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43280</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43189</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43007</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>39500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>142800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>23600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4420,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E83" s="3">
         <v>10300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>10600</v>
       </c>
       <c r="O83" s="3">
         <v>10600</v>
       </c>
       <c r="P83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>10200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>11200</v>
       </c>
       <c r="S83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4754,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-55400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>35000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>33700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>36800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>56900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>36100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>44000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-18400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4834,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5000,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-303800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>643100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4857,7 +5090,7 @@
         <v>-5500</v>
       </c>
       <c r="E96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="F96" s="3">
         <v>-5600</v>
@@ -4890,10 +5123,10 @@
         <v>-5600</v>
       </c>
       <c r="P96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-4900</v>
       </c>
       <c r="R96" s="3">
         <v>-4900</v>
@@ -4901,8 +5134,11 @@
       <c r="S96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5302,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>182900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-132300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>19900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-30000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-57700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>10000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5122,101 +5370,107 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-34700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-176100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-60300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>512900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,255 +665,268 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44106</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44015</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43924</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43644</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43553</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43371</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43280</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43189</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43007</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>185300</v>
+      </c>
+      <c r="E8" s="3">
         <v>214000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>177900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>207300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>237800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>182700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>174700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>166400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>220900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>157100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>178600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>179400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>473900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>447000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>449000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>435900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>433100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E9" s="3">
         <v>147100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>121200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>139600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>165200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>121500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>122100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>111900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>147900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>109400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>125200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>126200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>325600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>308600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>314500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>311600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>297700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E10" s="3">
         <v>66900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>56700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>67700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>72600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>61200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>52600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>54500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>73000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>53400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>53200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>148300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>138400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>134500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>124300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>135400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -934,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,53 +1063,56 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E14" s="3">
         <v>58700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1100,10 +1120,13 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>222900</v>
+      </c>
+      <c r="E17" s="3">
         <v>251100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>177600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>208800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>220200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>166100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>164100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>154100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>196700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>164100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>171400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>170800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>432500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>417400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>422500</v>
       </c>
       <c r="R17" s="3">
         <v>422500</v>
       </c>
       <c r="S17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="T17" s="3">
         <v>406400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>41400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,143 +1344,150 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H20" s="3">
-        <v>-4200</v>
+        <v>-2500</v>
       </c>
       <c r="I20" s="3">
-        <v>-4700</v>
+        <v>-4100</v>
       </c>
       <c r="J20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-4100</v>
       </c>
       <c r="P20" s="3">
         <v>-4100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-5200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-25400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8700</v>
       </c>
-      <c r="G21" s="3">
-        <v>21500</v>
-      </c>
       <c r="H21" s="3">
+        <v>21600</v>
+      </c>
+      <c r="I21" s="3">
         <v>19400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>47900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>36100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>31900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>33500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1479,120 +1519,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>37300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>25500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-19200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>34200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>34200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>13500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1827,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>5300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>132600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>7100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>16600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>10900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>10300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>9100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1865,14 +1926,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
-        <v>2600</v>
-      </c>
       <c r="H32" s="3">
-        <v>4200</v>
+        <v>2500</v>
       </c>
       <c r="I32" s="3">
-        <v>4700</v>
+        <v>4100</v>
       </c>
       <c r="J32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K32" s="3">
         <v>5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>4100</v>
       </c>
       <c r="P32" s="3">
         <v>4100</v>
       </c>
       <c r="Q32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R32" s="3">
         <v>5200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>39500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>142800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>22400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>39500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>142800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>22400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44106</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44015</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43924</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43644</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43553</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43371</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43280</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43189</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43007</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,64 +2398,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>104400</v>
+      </c>
+      <c r="E41" s="3">
         <v>152300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>235600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>270700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>471500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>510000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>36900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,270 +2514,285 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>271200</v>
+      </c>
+      <c r="E43" s="3">
         <v>328600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>326200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>320900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>292200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>256800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>230200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>390400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>256300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>373200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>382700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>401900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>316300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>281100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>275100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>261900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>236900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>185100</v>
+      </c>
+      <c r="E44" s="3">
         <v>188200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>207300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>193200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>156400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>173100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>163000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>313900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>294600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>303100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>291100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>296600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>367400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>385700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>392600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>390100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>393800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E45" s="3">
         <v>39500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>375800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>36300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>359300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>30700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>29300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>26600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>598000</v>
+      </c>
+      <c r="E46" s="3">
         <v>708600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>808900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>825200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>936500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>953800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>786000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>769000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>773100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>738000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>733500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>761700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>747900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>732900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>724800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>705100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>698600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E47" s="3">
         <v>8400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12600</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -2704,120 +2809,129 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>223700</v>
+      </c>
+      <c r="E48" s="3">
         <v>233300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>231900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>233800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>155600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>152200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>154600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>271800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>137100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>189100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>188200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>186700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>185500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>183100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>182300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>178000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>176500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>397400</v>
+      </c>
+      <c r="E49" s="3">
         <v>396800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>446400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>444500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>248800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>245100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>251400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>431700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>254700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>442800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>457500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>470000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>468800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>469900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>468200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>462600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>464300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E52" s="3">
         <v>64700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>67000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>67500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>72000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>71400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>363700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>54000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>298500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>49600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>50200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>54900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>53300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>73500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>73900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>83500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>86900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1306400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1411900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1560100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1577600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1418900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1430300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1564800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1536000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1474100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1431600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1442200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1485800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1455500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1459400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1449100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1429200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1426300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,69 +3270,73 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E57" s="3">
         <v>53900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>58300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>65700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>70900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>149100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>56800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>136000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>136100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>139200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>127600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>112000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>118900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>112100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>116700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>1900</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -3210,274 +3344,289 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>129600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>7500</v>
       </c>
       <c r="O58" s="3">
         <v>7500</v>
       </c>
       <c r="P58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>19000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>120900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>119500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E59" s="3">
         <v>140300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>139900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>133100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>131300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>179500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>237900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>157200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>285300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>128700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>109900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>101900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>111200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>126400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>106800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>115900</v>
-      </c>
-      <c r="S59" s="3">
-        <v>117700</v>
       </c>
       <c r="T59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>228400</v>
+      </c>
+      <c r="E60" s="3">
         <v>194300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>198100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>198800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>204000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>238600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>421600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>318400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>298500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>273400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>254100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>248500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>246300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>257300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>244600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>348900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>353900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>185400</v>
+      </c>
+      <c r="E61" s="3">
         <v>285600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>384600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>383600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>187200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>186500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>186300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>280800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>290500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>295600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>316200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>341600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>391700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>394500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>414800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>310100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>296600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E62" s="3">
         <v>161300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>173900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>197900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>204600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>216400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>298800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>294600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>305800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>224300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>229100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>253300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>181800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>188900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>189300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>196400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>208200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>560000</v>
+      </c>
+      <c r="E66" s="3">
         <v>641200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>756700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>780300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>595700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>641400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>906700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>893800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>840900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>793400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>799400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>843400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>819800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>840700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>848700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>855400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>858700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>728800</v>
+      </c>
+      <c r="E72" s="3">
         <v>765700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>809800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>815400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>820700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>786800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>649600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>641700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>610100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>592100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>596300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>586800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>587900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>579600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>568900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>561100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>560200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>746400</v>
+      </c>
+      <c r="E76" s="3">
         <v>770700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>803400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>797200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>823200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>788900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>658200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>642200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>633200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>638300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>642800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>642300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>635700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>618700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>600400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>573800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>567600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44106</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44015</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43924</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43644</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43553</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43371</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43280</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43189</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43007</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>39500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>142800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>22400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E83" s="3">
         <v>12400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>10600</v>
       </c>
       <c r="P83" s="3">
         <v>10600</v>
       </c>
       <c r="Q83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="R83" s="3">
         <v>10200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>11200</v>
       </c>
       <c r="T83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E89" s="3">
         <v>27000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-55400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-33600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>33700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>36800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>56900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>36100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>44000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-18400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>37700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-303800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>643100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5093,7 +5327,7 @@
         <v>-5500</v>
       </c>
       <c r="F96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="G96" s="3">
         <v>-5600</v>
@@ -5126,10 +5360,10 @@
         <v>-5600</v>
       </c>
       <c r="Q96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-4900</v>
       </c>
       <c r="S96" s="3">
         <v>-4900</v>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,172 +5548,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-106600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-104100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>182900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-132300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-26000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-30000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-57700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-26200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-83300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-34700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-176100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-60300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>512900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44106</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44015</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43924</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43644</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43553</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43371</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43280</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43189</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43007</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E8" s="3">
         <v>185300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>214000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>177900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>207300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>237800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>182700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>174700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>166400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>220900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>157100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>178600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>179400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>473900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>447000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>449000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>435900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>433100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>118700</v>
+      </c>
+      <c r="E9" s="3">
         <v>131000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>147100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>121200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>139600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>165200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>121500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>122100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>111900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>147900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>109400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>125200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>126200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>325600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>308600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>314500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>311600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>297700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E10" s="3">
         <v>54300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>66900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>56700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>67700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>72600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>73000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>53400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>53200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>148300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>138400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>134500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>124300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>135400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,56 +1083,59 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>42900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>58700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1123,10 +1143,13 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E17" s="3">
         <v>222900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>251100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>177600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>208800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>220200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>166100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>164100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>154100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>196700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>164100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>171400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>170800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>432500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>417400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>422500</v>
       </c>
       <c r="S17" s="3">
         <v>422500</v>
       </c>
       <c r="T17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="U17" s="3">
         <v>406400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>41400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,126 +1378,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-4100</v>
       </c>
       <c r="Q20" s="3">
         <v>-4100</v>
       </c>
       <c r="R20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-5200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-25400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>47900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>36100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>31900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>33500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,8 +1520,8 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1490,7 +1530,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1522,126 +1562,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>37300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>25500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-19200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>34200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>34200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>13500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>15100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1891,37 +1952,37 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>5300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>132600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>7100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>16600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>10900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>10300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>9100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1929,14 +1990,17 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>4100</v>
       </c>
       <c r="Q32" s="3">
         <v>4100</v>
       </c>
       <c r="R32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S32" s="3">
         <v>5200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>142800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>142800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44106</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44015</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43924</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43644</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43553</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43371</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43280</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43189</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43007</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,67 +2485,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E41" s="3">
         <v>104400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>152300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>235600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>270700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>471500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>510000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>36900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,285 +2607,300 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>226800</v>
+      </c>
+      <c r="E43" s="3">
         <v>271200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>328600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>326200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>320900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>292200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>256800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>230200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>390400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>256300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>373200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>382700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>401900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>316300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>281100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>275100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>261900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>236900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>197300</v>
+      </c>
+      <c r="E44" s="3">
         <v>185100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>188200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>207300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>193200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>156400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>173100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>163000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>313900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>294600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>303100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>291100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>296600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>367400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>385700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>392600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>390100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>393800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E45" s="3">
         <v>37300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>375800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>36300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>359300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>26600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>557500</v>
+      </c>
+      <c r="E46" s="3">
         <v>598000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>708600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>808900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>825200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>936500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>953800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>786000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>769000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>773100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>738000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>733500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>761700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>747900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>732900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>724800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>705100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>698600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E47" s="3">
         <v>8300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12600</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -2812,126 +2917,135 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E48" s="3">
         <v>223700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>233300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>231900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>233800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>155600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>152200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>154600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>271800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>137100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>189100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>188200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>186700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>185500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>183100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>182300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>178000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>176500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>390300</v>
+      </c>
+      <c r="E49" s="3">
         <v>397400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>396800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>446400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>444500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>248800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>245100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>251400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>431700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>254700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>442800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>457500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>470000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>468800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>469900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>468200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>462600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>464300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,67 +3165,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E52" s="3">
         <v>78900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>64700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>67000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>67500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>72000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>71400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>363700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>298500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>49600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>50200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>54900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>53300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>73500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>73900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>83500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>86900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1250700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1306400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1411900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1560100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1577600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1418900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1430300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1564800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1536000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1474100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1431600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1442200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1485800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1455500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1459400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1449100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1429200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1426300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,75 +3401,79 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E57" s="3">
         <v>60200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>58300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>65700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>70900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>54100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>149100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>56800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>136000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>136100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>139200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>127600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>112000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>118900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>112100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>116700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -3347,286 +3481,301 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>129600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>7500</v>
       </c>
       <c r="P58" s="3">
         <v>7500</v>
       </c>
       <c r="Q58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="R58" s="3">
         <v>19000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>18900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>120900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>119500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E59" s="3">
         <v>166300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>140300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>139900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>133100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>131300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>179500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>237900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>157200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>285300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>128700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>109900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>101900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>111200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>126400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>106800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>115900</v>
-      </c>
-      <c r="T59" s="3">
-        <v>117700</v>
       </c>
       <c r="U59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>159800</v>
+      </c>
+      <c r="E60" s="3">
         <v>228400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>194300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>198100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>198800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>204000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>238600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>421600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>318400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>298500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>273400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>254100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>248500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>246300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>257300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>244600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>348900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>353900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>186400</v>
+      </c>
+      <c r="E61" s="3">
         <v>185400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>285600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>384600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>383600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>187200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>186500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>186300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>280800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>290500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>295600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>316200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>341600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>391700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>394500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>414800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>310100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>296600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E62" s="3">
         <v>146100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>161300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>173900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>197900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>204600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>216400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>298800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>294600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>305800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>224300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>229100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>253300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>181800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>188900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>189300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>196400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>208200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>483500</v>
+      </c>
+      <c r="E66" s="3">
         <v>560000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>641200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>756700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>780300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>595700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>641400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>906700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>893800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>840900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>793400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>799400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>843400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>819800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>840700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>848700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>855400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>858700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>730900</v>
+      </c>
+      <c r="E72" s="3">
         <v>728800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>765700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>809800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>815400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>820700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>786800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>649600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>641700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>610100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>592100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>596300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>586800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>587900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>579600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>568900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>561100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>560200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>767200</v>
+      </c>
+      <c r="E76" s="3">
         <v>746400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>770700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>803400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>797200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>823200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>788900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>658200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>642200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>633200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>638300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>642800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>642300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>635700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>618700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>600400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>573800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>567600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44106</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44015</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43924</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43644</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43553</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43371</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43280</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43189</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43007</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>142800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E83" s="3">
         <v>11700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>10600</v>
       </c>
       <c r="Q83" s="3">
         <v>10600</v>
       </c>
       <c r="R83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="S83" s="3">
         <v>10200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>11200</v>
       </c>
       <c r="U83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>68800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>27000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-55400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-33600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>33700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>36800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>56900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>36100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>44000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>18300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-18400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>37700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-303800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>643100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5330,7 +5564,7 @@
         <v>-5500</v>
       </c>
       <c r="G96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="H96" s="3">
         <v>-5600</v>
@@ -5363,10 +5597,10 @@
         <v>-5600</v>
       </c>
       <c r="R96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="S96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-4900</v>
       </c>
       <c r="T96" s="3">
         <v>-4900</v>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,181 +5794,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-106600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-104100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>182900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-132300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>19900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-27700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-30000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-57700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-31000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-41300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-83300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-34700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-176100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-60300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>512900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-16500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E7" s="2">
         <v>44288</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44106</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44015</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43924</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43644</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43553</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43371</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43280</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43189</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43007</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>182400</v>
+      </c>
+      <c r="E8" s="3">
         <v>171600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>185300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>214000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>177900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>207300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>237800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>182700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>174700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>166400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>220900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>157100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>178600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>179400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>473900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>447000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>449000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>435900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>433100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>120400</v>
+      </c>
+      <c r="E9" s="3">
         <v>118700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>131000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>147100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>121200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>139600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>165200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>121500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>122100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>111900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>147900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>109400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>125200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>126200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>325600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>308600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>314500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>311600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>297700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E10" s="3">
         <v>52900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>54300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>56700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>67700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>72600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>61200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>53400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>53200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>148300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>138400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>134500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>124300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>135400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,13 +974,14 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>3200</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -1024,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,59 +1102,62 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>42900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>58700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1146,33 +1165,36 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1210,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1256,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E17" s="3">
         <v>165500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>222900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>251100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>177600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>208800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>220200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>166100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>164100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>154100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>196700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>164100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>171400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>170800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>432500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>417400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>422500</v>
       </c>
       <c r="T17" s="3">
         <v>422500</v>
       </c>
       <c r="U17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="V17" s="3">
         <v>406400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E18" s="3">
         <v>6100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>41400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>29600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>26700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,8 +1411,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1388,123 +1421,129 @@
         <v>2100</v>
       </c>
       <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-4100</v>
       </c>
       <c r="R20" s="3">
         <v>-4100</v>
       </c>
       <c r="S20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-5200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E21" s="3">
         <v>17400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>21600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>47900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>36100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>31900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>33500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,8 +1562,8 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1533,7 +1572,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1565,132 +1604,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E23" s="3">
         <v>8200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>37300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>25500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-19200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1799,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E26" s="3">
         <v>8000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>34200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>13500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>15100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E27" s="3">
         <v>8000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>34200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>13500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>15100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1955,37 +2015,37 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>5300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>132600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>16600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>7800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>10900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>10300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>9100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1993,14 +2053,17 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2189,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2132,123 +2201,129 @@
         <v>-2100</v>
       </c>
       <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>4100</v>
       </c>
       <c r="R32" s="3">
         <v>4100</v>
       </c>
       <c r="S32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="T32" s="3">
         <v>5200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E33" s="3">
         <v>8000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>142800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>15100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2384,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E35" s="3">
         <v>8000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>142800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>15100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E38" s="2">
         <v>44288</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44106</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44015</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43924</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43644</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43553</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43371</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43280</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43189</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43007</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,70 +2571,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E41" s="3">
         <v>120700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>104400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>152300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>235600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>270700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>471500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>510000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>36900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>41200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,300 +2699,315 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>221500</v>
+      </c>
+      <c r="E43" s="3">
         <v>226800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>271200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>328600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>326200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>320900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>292200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>256800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>230200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>390400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>256300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>373200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>382700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>401900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>316300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>281100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>275100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>261900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>236900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E44" s="3">
         <v>197300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>185100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>188200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>207300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>193200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>156400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>173100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>163000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>313900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>294600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>303100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>291100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>296600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>367400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>385700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>392600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>390100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>393800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E45" s="3">
         <v>12600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>40400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>375800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>36300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>359300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>30700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>29300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>28400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>26600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>529200</v>
+      </c>
+      <c r="E46" s="3">
         <v>557500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>598000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>708600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>808900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>825200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>936500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>953800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>786000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>769000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>773100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>738000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>733500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>761700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>747900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>732900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>724800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>705100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>698600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E47" s="3">
         <v>7200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12600</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -2920,132 +3024,141 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>216700</v>
+      </c>
+      <c r="E48" s="3">
         <v>219200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>223700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>233300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>231900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>233800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>155600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>152200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>154600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>271800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>137100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>189100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>188200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>186700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>185500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>183100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>182300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>178000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>176500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>388700</v>
+      </c>
+      <c r="E49" s="3">
         <v>390300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>397400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>396800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>446400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>444500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>248800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>245100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>251400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>431700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>254700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>442800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>457500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>470000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>468800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>469900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>468200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>462600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>464300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,70 +3284,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E52" s="3">
         <v>76500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>78900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>64700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>67000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>67500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>72000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>71400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>363700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>54000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>298500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>49600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>50200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>54900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>53300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>73500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>73900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>83500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>86900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3414,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1216700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1250700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1306400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1411900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1560100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1577600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1418900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1430300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1564800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1536000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1474100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1431600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1442200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1485800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1455500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1459400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1449100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1429200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1426300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,81 +3531,85 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E57" s="3">
         <v>45900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>60200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>58300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>65700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>70900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>54100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>149100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>56800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>136000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>136100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>139200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>127600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>112000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>118900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>112100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>116700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>1900</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -3484,298 +3617,313 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>129600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>7500</v>
       </c>
       <c r="Q58" s="3">
         <v>7500</v>
       </c>
       <c r="R58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="S58" s="3">
         <v>19000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>18900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>120900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>119500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E59" s="3">
         <v>113900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>166300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>140300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>139900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>133100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>131300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>179500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>237900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>157200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>285300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>128700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>109900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>101900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>111200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>126400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>106800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>115900</v>
-      </c>
-      <c r="U59" s="3">
-        <v>117700</v>
       </c>
       <c r="V59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E60" s="3">
         <v>159800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>228400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>194300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>198100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>198800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>204000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>238600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>421600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>318400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>298500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>273400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>254100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>248500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>246300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>257300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>244600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>348900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>353900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>187400</v>
+      </c>
+      <c r="E61" s="3">
         <v>186400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>185400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>285600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>384600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>383600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>187200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>186500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>186300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>280800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>290500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>295600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>316200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>341600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>391700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>394500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>414800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>310100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>296600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E62" s="3">
         <v>137300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>146100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>161300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>173900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>197900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>204600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>216400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>298800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>294600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>305800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>224300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>229100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>253300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>181800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>188900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>189300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>196400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>208200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4114,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>437500</v>
+      </c>
+      <c r="E66" s="3">
         <v>483500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>560000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>641200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>756700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>780300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>595700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>641400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>906700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>893800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>840900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>793400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>799400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>843400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>819800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>840700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>848700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>855400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>858700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4464,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>737200</v>
+      </c>
+      <c r="E72" s="3">
         <v>730900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>728800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>765700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>809800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>815400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>820700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>786800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>649600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>641700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>610100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>592100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>596300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>586800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>587900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>579600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>568900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>561100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>560200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4724,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>779200</v>
+      </c>
+      <c r="E76" s="3">
         <v>767200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>746400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>770700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>803400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>797200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>823200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>788900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>658200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>642200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>633200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>638300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>642800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>642300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>635700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>618700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>600400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>573800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>567600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4854,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E80" s="2">
         <v>44288</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44106</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44015</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43924</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43644</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43553</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43371</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43280</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43189</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43007</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E81" s="3">
         <v>8000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>142800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>15100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,8 +5016,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4828,61 +5026,64 @@
         <v>9200</v>
       </c>
       <c r="E83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F83" s="3">
         <v>11700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>10600</v>
       </c>
       <c r="R83" s="3">
         <v>10600</v>
       </c>
       <c r="S83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="T83" s="3">
         <v>10200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>11200</v>
       </c>
       <c r="V83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5404,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>68800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-55400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>33700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>36800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>56900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>44000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-18400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>37700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5496,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5689,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-303800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>643100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,13 +5781,14 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="E96" s="3">
         <v>-5500</v>
@@ -5567,7 +5800,7 @@
         <v>-5500</v>
       </c>
       <c r="H96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="I96" s="3">
         <v>-5600</v>
@@ -5600,10 +5833,10 @@
         <v>-5600</v>
       </c>
       <c r="S96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="T96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-4900</v>
       </c>
       <c r="U96" s="3">
         <v>-4900</v>
@@ -5611,8 +5844,11 @@
       <c r="V96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6039,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-106600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-104100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>182900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-18600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-132300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-27700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-30000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-57700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-26200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-31000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>10000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-14200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-41300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-83300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-34700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-176100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-60300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>512900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-16500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E7" s="2">
         <v>44379</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44288</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44106</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44015</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43924</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43644</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43553</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43371</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43280</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43189</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43007</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>179800</v>
+      </c>
+      <c r="E8" s="3">
         <v>182400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>171600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>185300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>214000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>177900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>207300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>237800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>182700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>174700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>166400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>220900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>157100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>178600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>179400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>473900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>447000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>449000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>435900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>433100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E9" s="3">
         <v>120400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>118700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>131000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>147100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>121200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>139600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>165200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>121500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>122100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>111900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>147900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>109400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>125200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>126200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>325600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>308600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>314500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>311600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>297700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E10" s="3">
         <v>62000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>52900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>54300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>66900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>56700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>67700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>72600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>53400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>53200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>148300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>138400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>134500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>124300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>135400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,16 +987,17 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
         <v>3200</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -1040,8 +1053,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,62 +1121,65 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>42900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>58700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2500</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1168,18 +1187,21 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>2600</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="E15" s="3">
+        <v>2600</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1196,8 +1218,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1235,8 +1257,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,138 +1282,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>163900</v>
+      </c>
+      <c r="E17" s="3">
         <v>167100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>165500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>222900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>251100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>177600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>208800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>220200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>166100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>164100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>154100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>196700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>164100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>171400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>170800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>432500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>417400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>422500</v>
       </c>
       <c r="U17" s="3">
         <v>422500</v>
       </c>
       <c r="V17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="W17" s="3">
         <v>406400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E18" s="3">
         <v>15300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>41400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>29600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>26700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,138 +1444,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2100</v>
+        <v>3200</v>
       </c>
       <c r="E20" s="3">
         <v>2100</v>
       </c>
       <c r="F20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-4100</v>
       </c>
       <c r="S20" s="3">
         <v>-4100</v>
       </c>
       <c r="T20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-5200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E21" s="3">
         <v>26500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>21600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>47900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>36100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>31900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>21000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>33500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,8 +1604,8 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1575,7 +1614,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1607,138 +1646,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E23" s="3">
         <v>17400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-38100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-37800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>37300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>25500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>21300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>5500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-19200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,138 +1850,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E26" s="3">
         <v>11900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-38500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>13500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E27" s="3">
         <v>11900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-38500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>34200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>13500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>15100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2018,37 +2078,37 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>5300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>132600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>16600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>7800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>10900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>10300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>9100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2056,14 +2116,17 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,138 +2258,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2100</v>
+        <v>-3200</v>
       </c>
       <c r="E32" s="3">
         <v>-2100</v>
       </c>
       <c r="F32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>4100</v>
       </c>
       <c r="S32" s="3">
         <v>4100</v>
       </c>
       <c r="T32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U32" s="3">
         <v>5200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E33" s="3">
         <v>11900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-38500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>142800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>13500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>15100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,143 +2462,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E35" s="3">
         <v>11900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-38500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>142800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>13500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>15100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E38" s="2">
         <v>44379</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44288</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44106</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44015</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43924</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43644</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43553</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43371</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43280</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43189</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43007</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,73 +2657,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>121500</v>
+      </c>
+      <c r="E41" s="3">
         <v>98400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>120700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>104400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>152300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>235600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>270700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>471500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>510000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>27800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>41200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2702,315 +2791,330 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>213300</v>
+      </c>
+      <c r="E43" s="3">
         <v>221500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>226800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>271200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>328600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>326200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>320900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>292200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>256800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>230200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>390400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>256300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>373200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>382700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>401900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>316300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>281100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>275100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>261900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>236900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>195700</v>
+      </c>
+      <c r="E44" s="3">
         <v>196100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>197300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>185100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>188200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>207300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>193200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>156400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>173100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>163000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>313900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>294600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>303100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>291100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>296600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>367400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>385700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>392600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>390100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>393800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E45" s="3">
         <v>13200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>40400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>375800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>36300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>359300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>33000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>30700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>29300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>28400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>26600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>545000</v>
+      </c>
+      <c r="E46" s="3">
         <v>529200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>557500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>598000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>708600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>808900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>825200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>936500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>953800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>786000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>769000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>773100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>738000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>733500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>761700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>747900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>732900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>724800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>705100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>698600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E47" s="3">
         <v>8300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12600</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -3027,138 +3131,147 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E48" s="3">
         <v>216700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>219200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>223700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>233300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>231900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>233800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>155600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>152200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>154600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>271800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>137100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>189100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>188200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>186700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>185500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>183100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>182300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>178000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>176500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>383400</v>
+      </c>
+      <c r="E49" s="3">
         <v>388700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>390300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>397400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>396800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>446400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>444500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>248800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>245100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>251400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>431700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>254700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>442800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>457500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>470000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>468800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>469900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>468200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>462600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>464300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,73 +3403,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E52" s="3">
         <v>73700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>76500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>78900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>64700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>67000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>67500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>72000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>71400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>363700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>54000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>298500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>49600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>50200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>54900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>53300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>73500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>73900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>83500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>86900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,73 +3539,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1221700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1216700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1250700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1306400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1411900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1560100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1577600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1418900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1430300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1564800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1536000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1474100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1431600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1442200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1485800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1455500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1459400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1449100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1429200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1426300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,73 +3661,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E57" s="3">
         <v>36500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>60200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>58300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>65700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>70900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>54100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>149100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>56800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>136000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>136100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>139200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>127600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>112000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>118900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>112100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>116700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,11 +3741,11 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>1900</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -3620,310 +3753,325 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>129600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>7500</v>
       </c>
       <c r="R58" s="3">
         <v>7500</v>
       </c>
       <c r="S58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="T58" s="3">
         <v>19000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>18900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>120900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>119500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E59" s="3">
         <v>95800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>113900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>166300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>140300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>139900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>133100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>131300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>179500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>237900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>157200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>285300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>128700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>109900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>101900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>111200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>126400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>106800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>115900</v>
-      </c>
-      <c r="V59" s="3">
-        <v>117700</v>
       </c>
       <c r="W59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E60" s="3">
         <v>132300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>159800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>228400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>194300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>198100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>198800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>204000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>238600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>421600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>318400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>298500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>273400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>254100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>248500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>246300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>257300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>244600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>348900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>353900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>188400</v>
+      </c>
+      <c r="E61" s="3">
         <v>187400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>186400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>185400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>285600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>384600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>383600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>187200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>186500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>186300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>280800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>290500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>295600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>316200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>341600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>391700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>394500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>414800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>310100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>296600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>108700</v>
+      </c>
+      <c r="E62" s="3">
         <v>117800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>137300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>146100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>161300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>173900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>197900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>204600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>216400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>298800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>294600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>305800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>224300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>229100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>253300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>181800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>188900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>189300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>196400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>208200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,73 +4271,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>435000</v>
+      </c>
+      <c r="E66" s="3">
         <v>437500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>483500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>560000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>641200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>756700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>780300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>595700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>641400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>906700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>893800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>840900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>793400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>799400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>843400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>819800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>840700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>848700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>855400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>858700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,73 +4637,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>746300</v>
+      </c>
+      <c r="E72" s="3">
         <v>737200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>730900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>728800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>765700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>809800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>815400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>820700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>786800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>649600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>641700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>610100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>592100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>596300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>586800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>587900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>579600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>568900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>561100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>560200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,73 +4909,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>786700</v>
+      </c>
+      <c r="E76" s="3">
         <v>779200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>767200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>746400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>770700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>803400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>797200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>823200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>788900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>658200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>642200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>633200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>638300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>642800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>642300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>635700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>618700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>600400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>573800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>567600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,143 +5045,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E80" s="2">
         <v>44379</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44288</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44106</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44015</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43924</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43644</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43553</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43371</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43280</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43189</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43007</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E81" s="3">
         <v>11900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-38500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>142800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>13500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>15100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,73 +5214,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="E83" s="3">
         <v>9200</v>
       </c>
       <c r="F83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G83" s="3">
         <v>11700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>10600</v>
       </c>
       <c r="S83" s="3">
         <v>10600</v>
       </c>
       <c r="T83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="U83" s="3">
         <v>10200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11100</v>
-      </c>
-      <c r="V83" s="3">
-        <v>11200</v>
       </c>
       <c r="W83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,73 +5620,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>68800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>27000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-55400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-33600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>33700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>36800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>56900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>44000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>18300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-18400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>37700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,73 +5716,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,73 +5918,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-303800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>643100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6014,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5791,7 +6024,7 @@
         <v>-5600</v>
       </c>
       <c r="E96" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="F96" s="3">
         <v>-5500</v>
@@ -5803,7 +6036,7 @@
         <v>-5500</v>
       </c>
       <c r="I96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="J96" s="3">
         <v>-5600</v>
@@ -5836,10 +6069,10 @@
         <v>-5600</v>
       </c>
       <c r="T96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="U96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-4900</v>
       </c>
       <c r="V96" s="3">
         <v>-4900</v>
@@ -5847,8 +6080,11 @@
       <c r="W96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,199 +6284,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-106600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-104100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>182900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-132300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>19900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-26000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-57700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-26200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-31000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>10000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-14200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-41300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-83300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-34700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-176100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-60300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>512900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-16500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>15700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,318 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44470</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44379</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44288</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44106</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44015</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43924</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43644</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43553</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43371</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43280</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43189</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43007</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>175100</v>
+      </c>
+      <c r="E8" s="3">
         <v>179800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>182400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>171600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>185300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>214000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>177900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>207300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>237800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>182700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>174700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>166400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>220900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>157100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>178600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>179400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>473900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>447000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>449000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>435900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>433100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E9" s="3">
         <v>116800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>120400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>118700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>131000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>147100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>121200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>139600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>165200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>121500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>122100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>111900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>147900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>109400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>125200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>126200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>325600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>308600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>314500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>311600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>297700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E10" s="3">
         <v>63000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>62000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>52900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>54300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>66900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>56700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>67700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>72600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>47700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>53400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>53200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>148300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>138400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>134500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>124300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>135400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,19 +1001,20 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
         <v>2500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3200</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1056,8 +1070,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1124,65 +1141,68 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>2600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>42900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>58700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2500</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1190,10 +1210,13 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1203,8 +1226,8 @@
       <c r="E15" s="3">
         <v>2600</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+      <c r="F15" s="3">
+        <v>2600</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1221,8 +1244,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1260,8 +1283,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,144 +1309,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>162100</v>
+      </c>
+      <c r="E17" s="3">
         <v>163900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>167100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>165500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>222900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>251100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>177600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>208800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>220200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>166100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>164100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>154100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>196700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>164100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>171400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>170800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>432500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>417400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>422500</v>
       </c>
       <c r="V17" s="3">
         <v>422500</v>
       </c>
       <c r="W17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="X17" s="3">
         <v>406400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E18" s="3">
         <v>15900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>41400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>29600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>26500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>26700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1445,144 +1478,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>3200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2100</v>
       </c>
       <c r="F20" s="3">
         <v>2100</v>
       </c>
       <c r="G20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-4100</v>
       </c>
       <c r="T20" s="3">
         <v>-4100</v>
       </c>
       <c r="U20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-5200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E21" s="3">
         <v>28200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>17300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>47900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>36100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>31900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>21000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>33500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1607,8 +1647,8 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1617,7 +1657,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1649,144 +1689,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E23" s="3">
         <v>19100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-38100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>37300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>25500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>21300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-19200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1853,144 +1902,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E26" s="3">
         <v>14700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-31400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-38500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>13500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>15100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E27" s="3">
         <v>14700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-38500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>13500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>15100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2057,8 +2115,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2081,37 +2142,37 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>132600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>7100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>16600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>7800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>10900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>10300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>9100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2119,14 +2180,17 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2193,8 +2257,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2261,144 +2328,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-2100</v>
       </c>
       <c r="F32" s="3">
         <v>-2100</v>
       </c>
       <c r="G32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>4100</v>
       </c>
       <c r="T32" s="3">
         <v>4100</v>
       </c>
       <c r="U32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="V32" s="3">
         <v>5200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E33" s="3">
         <v>14700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-38500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>142800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>13500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>15100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2465,149 +2541,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E35" s="3">
         <v>14700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-38500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>142800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>13500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>15100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44470</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44379</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44288</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44106</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44015</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43924</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43644</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43553</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43371</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43280</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43189</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43007</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2632,8 +2717,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2658,76 +2744,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E41" s="3">
         <v>121500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>98400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>120700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>104400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>152300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>235600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>270700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>471500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>510000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>36900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>27800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>41200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2794,330 +2884,345 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E43" s="3">
         <v>213300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>221500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>226800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>271200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>328600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>326200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>320900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>292200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>256800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>230200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>390400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>256300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>373200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>382700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>401900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>316300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>281100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>275100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>261900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>236900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>193100</v>
+      </c>
+      <c r="E44" s="3">
         <v>195700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>196100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>197300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>185100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>188200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>207300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>193200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>156400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>173100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>163000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>313900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>294600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>303100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>291100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>296600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>367400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>385700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>392600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>390100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>393800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E45" s="3">
         <v>14500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>37300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>375800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>36300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>359300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>33000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>30700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>29300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>28400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>26600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>546500</v>
+      </c>
+      <c r="E46" s="3">
         <v>545000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>529200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>557500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>598000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>708600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>808900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>825200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>936500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>953800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>786000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>769000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>773100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>738000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>733500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>761700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>747900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>732900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>724800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>705100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>698600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E47" s="3">
         <v>10400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12600</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -3134,144 +3239,153 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>208800</v>
+      </c>
+      <c r="E48" s="3">
         <v>211000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>216700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>219200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>223700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>233300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>231900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>233800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>155600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>152200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>154600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>271800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>137100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>189100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>188200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>186700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>185500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>183100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>182300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>178000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>176500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>378800</v>
+      </c>
+      <c r="E49" s="3">
         <v>383400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>388700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>390300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>397400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>396800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>446400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>444500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>248800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>245100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>251400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>431700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>254700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>442800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>457500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>470000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>468800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>469900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>468200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>462600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>464300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3338,8 +3452,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3406,76 +3523,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E52" s="3">
         <v>71900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>73700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>76500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>64700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>67000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>67500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>72000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>71400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>363700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>54000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>298500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>49600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>50200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>54900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>53300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>73500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>73900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>83500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>86900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3542,76 +3665,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1198500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1221700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1216700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1250700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1306400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1411900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1560100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1577600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1418900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1430300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1564800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1536000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1474100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1431600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1442200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1485800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1455500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1459400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1449100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1429200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1426300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3636,8 +3765,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3662,81 +3792,85 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E57" s="3">
         <v>38700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>60200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>53900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>58300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>65700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>70900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>54100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>149100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>56800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>136000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>136100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>139200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>127600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>112000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>118900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>112100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>116700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>1700</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -3744,11 +3878,11 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>1900</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -3756,322 +3890,337 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>129600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>7500</v>
       </c>
       <c r="S58" s="3">
         <v>7500</v>
       </c>
       <c r="T58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="U58" s="3">
         <v>19000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>18900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>120900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>119500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E59" s="3">
         <v>99100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>95800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>113900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>166300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>140300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>139900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>133100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>131300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>179500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>237900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>157200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>285300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>128700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>109900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>101900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>111200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>126400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>106800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>115900</v>
-      </c>
-      <c r="W59" s="3">
-        <v>117700</v>
       </c>
       <c r="X59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E60" s="3">
         <v>137800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>132300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>159800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>228400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>194300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>198100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>198800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>204000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>238600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>421600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>318400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>298500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>273400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>254100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>248500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>246300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>257300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>244600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>348900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>353900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>189400</v>
+      </c>
+      <c r="E61" s="3">
         <v>188400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>187400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>186400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>185400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>285600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>384600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>383600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>187200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>186500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>186300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>280800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>290500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>295600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>316200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>341600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>391700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>394500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>414800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>310100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>296600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E62" s="3">
         <v>108700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>117800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>137300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>146100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>161300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>173900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>197900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>204600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>216400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>298800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>294600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>305800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>224300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>229100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>253300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>181800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>188900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>189300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>196400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>208200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4138,8 +4287,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4206,8 +4358,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4274,76 +4429,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>402200</v>
+      </c>
+      <c r="E66" s="3">
         <v>435000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>437500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>483500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>560000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>641200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>756700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>780300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>595700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>641400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>906700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>893800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>840900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>793400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>799400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>843400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>819800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>840700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>848700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>855400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>858700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4368,8 +4529,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4436,8 +4598,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4504,8 +4669,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4572,8 +4740,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4640,76 +4811,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>750400</v>
+      </c>
+      <c r="E72" s="3">
         <v>746300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>737200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>730900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>728800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>765700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>809800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>815400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>820700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>786800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>649600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>641700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>610100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>592100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>596300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>586800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>587900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>579600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>568900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>561100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>560200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4776,8 +4953,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4844,8 +5024,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4912,76 +5095,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>796300</v>
+      </c>
+      <c r="E76" s="3">
         <v>786700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>779200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>767200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>746400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>770700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>803400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>797200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>823200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>788900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>658200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>642200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>633200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>638300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>642800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>642300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>635700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>618700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>600400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>573800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>567600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5048,149 +5237,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44470</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44379</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44288</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44106</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44015</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43924</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43644</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43553</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43371</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43280</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43189</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43007</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E81" s="3">
         <v>14700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-38500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>142800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>13500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>15100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5215,76 +5413,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E83" s="3">
         <v>9100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>9200</v>
       </c>
       <c r="F83" s="3">
         <v>9200</v>
       </c>
       <c r="G83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H83" s="3">
         <v>11700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>10600</v>
       </c>
       <c r="T83" s="3">
         <v>10600</v>
       </c>
       <c r="U83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="V83" s="3">
         <v>10200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11100</v>
-      </c>
-      <c r="W83" s="3">
-        <v>11200</v>
       </c>
       <c r="X83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5351,8 +5553,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5419,8 +5624,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5487,8 +5695,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5555,8 +5766,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5623,76 +5837,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E89" s="3">
         <v>28800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>68800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>27000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-55400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-33600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>33700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>56900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>44000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>18300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-18400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>37700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5717,76 +5937,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5853,8 +6077,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5921,76 +6148,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-303800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>643100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6015,8 +6248,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6027,7 +6261,7 @@
         <v>-5600</v>
       </c>
       <c r="F96" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="G96" s="3">
         <v>-5500</v>
@@ -6039,7 +6273,7 @@
         <v>-5500</v>
       </c>
       <c r="J96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="K96" s="3">
         <v>-5600</v>
@@ -6072,10 +6306,10 @@
         <v>-5600</v>
       </c>
       <c r="U96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="V96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-4900</v>
       </c>
       <c r="W96" s="3">
         <v>-4900</v>
@@ -6083,8 +6317,11 @@
       <c r="X96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6151,8 +6388,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6219,8 +6459,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6287,76 +6530,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-106600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-104100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>182900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-132300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-30000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-57700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-26200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-31000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>10000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-14200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6364,131 +6613,137 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E102" s="3">
         <v>23100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-41300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-83300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-34700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-176100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-60300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>512900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-16500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>15700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,318 +665,331 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44470</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44379</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44288</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44106</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44015</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43924</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43644</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43553</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43371</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43280</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43189</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43007</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E8" s="3">
         <v>175100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>179800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>182400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>171600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>185300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>214000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>177900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>207300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>237800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>182700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>174700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>166400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>220900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>157100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>178600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>179400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>473900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>447000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>449000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>435900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>433100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E9" s="3">
         <v>116400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>116800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>120400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>118700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>131000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>147100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>121200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>139600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>165200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>121500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>122100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>111900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>147900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>109400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>125200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>126200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>325600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>308600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>314500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>311600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>297700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E10" s="3">
         <v>58700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>63000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>62000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>52900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>54300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>66900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>56700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>67700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>72600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>54500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>73000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>47700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>53400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>53200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>148300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>138400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>134500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>124300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>135400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,22 +1015,23 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3200</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -1073,8 +1087,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1144,68 +1161,71 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>42900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>58700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2500</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1213,15 +1233,18 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E15" s="3">
         <v>2600</v>
@@ -1229,8 +1252,8 @@
       <c r="F15" s="3">
         <v>2600</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+      <c r="G15" s="3">
+        <v>2600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1247,8 +1270,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1286,8 +1309,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1310,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E17" s="3">
         <v>162100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>163900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>167100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>165500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>222900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>251100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>177600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>208800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>220200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>166100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>164100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>154100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>196700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>164100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>171400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>170800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>432500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>417400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>422500</v>
       </c>
       <c r="W17" s="3">
         <v>422500</v>
       </c>
       <c r="X17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="Y17" s="3">
         <v>406400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>13000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>41400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>29600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>26500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>26700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1479,150 +1512,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2100</v>
       </c>
       <c r="G20" s="3">
         <v>2100</v>
       </c>
       <c r="H20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-4100</v>
       </c>
       <c r="U20" s="3">
         <v>-4100</v>
       </c>
       <c r="V20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-5200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E21" s="3">
         <v>25000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>29300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>17300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>47900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>36100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>31900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>21000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>33500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1650,8 +1690,8 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1660,7 +1700,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1692,150 +1732,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>15800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>17400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-38100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>37300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>25500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>21300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>22600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>6700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-19200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1905,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>9200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-38500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>13500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>15100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>9200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-38500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>13500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>15100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2118,13 +2176,16 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2145,37 +2206,37 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>132600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>7100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>16600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>7800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>10900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>10300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>9100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2183,14 +2244,17 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2260,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2100</v>
       </c>
       <c r="G32" s="3">
         <v>-2100</v>
       </c>
       <c r="H32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>4100</v>
       </c>
       <c r="U32" s="3">
         <v>4100</v>
       </c>
       <c r="V32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="W32" s="3">
         <v>5200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>9200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-38500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>142800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>13800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>13500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>15100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2544,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>9200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-38500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>142800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>13800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>13500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>15100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44470</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44379</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44288</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44106</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44015</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43924</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43644</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43553</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43371</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43280</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43189</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43007</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2718,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2745,79 +2831,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E41" s="3">
         <v>140800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>121500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>98400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>120700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>104400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>152300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>235600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>270700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>471500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>510000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>36900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>35400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>27800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>41200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2887,345 +2977,360 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>183300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>213300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>221500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>226800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>271200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>328600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>326200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>320900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>292200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>256800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>230200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>390400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>256300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>373200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>382700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>401900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>316300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>281100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>275100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>261900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>236900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E44" s="3">
         <v>193100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>195700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>196100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>197300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>185100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>188200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>207300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>193200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>156400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>173100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>163000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>313900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>294600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>303100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>291100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>296600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>367400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>385700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>392600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>390100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>393800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E45" s="3">
         <v>12100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>37300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>39800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>375800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>36300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>359300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>32200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>33000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>27200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>30700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>29300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>28400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>26600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>536400</v>
+      </c>
+      <c r="E46" s="3">
         <v>546500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>545000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>529200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>557500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>598000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>708600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>808900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>825200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>936500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>953800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>786000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>769000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>773100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>738000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>733500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>761700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>747900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>732900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>724800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>705100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>698600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E47" s="3">
         <v>10200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12600</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3242,150 +3347,159 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>207100</v>
+      </c>
+      <c r="E48" s="3">
         <v>208800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>211000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>216700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>219200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>223700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>233300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>231900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>233800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>155600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>152200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>154600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>271800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>137100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>189100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>188200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>186700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>185500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>183100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>182300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>178000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>176500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>373100</v>
+      </c>
+      <c r="E49" s="3">
         <v>378800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>383400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>388700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>390300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>397400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>396800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>446400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>444500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>248800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>245100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>251400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>431700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>254700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>442800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>457500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>470000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>468800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>469900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>468200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>462600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>464300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3455,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3526,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E52" s="3">
         <v>54100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>71900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>73700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>76500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>64700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>67000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>72000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>71400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>363700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>54000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>298500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>49600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>50200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>54900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>53300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>73500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>73900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>83500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>86900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3668,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1180300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1198500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1221700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1216700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1250700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1306400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1411900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1560100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1577600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1418900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1430300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1564800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1536000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1474100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1431600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1442200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1485800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1455500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1459400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1449100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1429200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1426300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3766,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3793,87 +3923,91 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E57" s="3">
         <v>42100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>60200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>53900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>58300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>65700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>70900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>57100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>54100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>149100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>56800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>136000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>136100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>139200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>127600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>112000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>118900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>112100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>116700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -3881,11 +4015,11 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>1900</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3893,334 +4027,349 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>129600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>12100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>7500</v>
       </c>
       <c r="T58" s="3">
         <v>7500</v>
       </c>
       <c r="U58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="V58" s="3">
         <v>19000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>18900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>120900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>119500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E59" s="3">
         <v>77100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>99100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>95800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>113900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>166300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>140300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>139900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>133100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>131300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>179500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>237900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>157200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>285300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>128700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>109900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>101900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>111200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>126400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>106800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>115900</v>
-      </c>
-      <c r="X59" s="3">
-        <v>117700</v>
       </c>
       <c r="Y59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E60" s="3">
         <v>120900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>137800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>132300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>159800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>228400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>194300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>198100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>198800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>204000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>238600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>421600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>318400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>298500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>273400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>254100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>248500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>246300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>257300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>244600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>348900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>353900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>197300</v>
+      </c>
+      <c r="E61" s="3">
         <v>189400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>188400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>187400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>186400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>185400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>285600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>384600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>383600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>187200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>186500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>186300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>280800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>290500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>295600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>316200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>341600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>391700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>394500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>414800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>310100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>296600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E62" s="3">
         <v>91800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>108700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>117800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>137300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>146100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>161300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>173900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>197900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>204600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>216400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>298800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>294600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>305800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>224300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>229100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>253300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>181800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>188900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>189300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>196400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>208200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4290,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4361,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4432,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>393500</v>
+      </c>
+      <c r="E66" s="3">
         <v>402200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>435000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>437500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>483500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>560000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>641200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>756700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>780300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>595700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>641400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>906700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>893800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>840900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>793400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>799400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>843400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>819800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>840700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>848700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>855400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>858700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4530,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4601,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4672,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4814,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>755500</v>
+      </c>
+      <c r="E72" s="3">
         <v>750400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>746300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>737200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>730900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>728800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>765700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>809800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>815400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>820700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>786800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>649600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>641700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>610100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>592100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>596300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>586800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>587900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>579600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>568900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>561100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>560200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4956,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5027,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5098,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>786700</v>
+      </c>
+      <c r="E76" s="3">
         <v>796300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>786700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>779200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>767200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>746400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>770700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>803400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>797200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>823200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>788900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>658200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>642200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>633200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>638300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>642800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>642300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>635700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>618700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>600400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>573800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>567600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44470</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44379</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44288</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44106</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44015</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43924</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43644</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43553</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43371</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43280</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43189</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43007</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>9200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-38500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>142800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>13800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>13500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>15100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5414,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E83" s="3">
         <v>9200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>9200</v>
       </c>
       <c r="G83" s="3">
         <v>9200</v>
       </c>
       <c r="H83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I83" s="3">
         <v>11700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>10600</v>
       </c>
       <c r="U83" s="3">
         <v>10600</v>
       </c>
       <c r="V83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="W83" s="3">
         <v>10200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11100</v>
-      </c>
-      <c r="X83" s="3">
-        <v>11200</v>
       </c>
       <c r="Y83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5556,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5627,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5698,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5769,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5840,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>34600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>68800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-24000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-55400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-33600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>22600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>33700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>56900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>44000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>18300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-18400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>37700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5938,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6080,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6151,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-303800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>643100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6249,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6264,7 +6498,7 @@
         <v>-5600</v>
       </c>
       <c r="G96" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="H96" s="3">
         <v>-5500</v>
@@ -6276,7 +6510,7 @@
         <v>-5500</v>
       </c>
       <c r="K96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="L96" s="3">
         <v>-5600</v>
@@ -6309,10 +6543,10 @@
         <v>-5600</v>
       </c>
       <c r="V96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="W96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-4900</v>
       </c>
       <c r="X96" s="3">
         <v>-4900</v>
@@ -6320,8 +6554,11 @@
       <c r="Y96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6391,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6462,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6533,79 +6776,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-106600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-104100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>182900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-18600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-132300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-26000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-30000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-57700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-26200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-31000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>10000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-14200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6616,134 +6865,140 @@
         <v>-200</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>100</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E102" s="3">
         <v>19300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-41300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-83300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-34700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-176100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-60300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>512900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-16500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>15700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,343 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E7" s="2">
         <v>44652</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44470</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44379</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44288</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44106</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44015</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43924</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43644</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43553</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43371</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43280</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43189</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43007</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E8" s="3">
         <v>158000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>175100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>179800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>182400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>171600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>185300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>214000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>177900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>207300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>237800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>182700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>174700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>166400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>220900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>157100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>178600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>179400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>473900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>447000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>449000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>435900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>433100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>108700</v>
+      </c>
+      <c r="E9" s="3">
         <v>107500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>116400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>116800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>120400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>118700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>131000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>147100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>121200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>139600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>165200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>121500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>122100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>111900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>147900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>109400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>125200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>126200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>325600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>308600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>314500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>311600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>297700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E10" s="3">
         <v>50500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>63000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>62000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>52900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>54300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>66900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>56700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>67700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>72600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>61200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>54500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>73000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>47700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>53400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>53200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>148300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>138400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>134500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>124300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>135400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,25 +1028,26 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E12" s="3">
         <v>5100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3200</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -1090,8 +1103,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,71 +1180,74 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>42900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>58700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2500</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1236,18 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="3">
         <v>2500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2600</v>
       </c>
       <c r="F15" s="3">
         <v>2600</v>
@@ -1255,8 +1277,8 @@
       <c r="G15" s="3">
         <v>2600</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+      <c r="H15" s="3">
+        <v>2600</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1273,8 +1295,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1312,8 +1334,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1362,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>158500</v>
+      </c>
+      <c r="E17" s="3">
         <v>155000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>162100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>163900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>167100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>165500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>222900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>251100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>177600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>208800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>220200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>166100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>164100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>154100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>196700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>164100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>171400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>170800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>432500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>417400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>422500</v>
       </c>
       <c r="X17" s="3">
         <v>422500</v>
       </c>
       <c r="Y17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="Z17" s="3">
         <v>406400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>41400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>29600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>26500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>26700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,8 +1545,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1522,147 +1555,153 @@
         <v>2300</v>
       </c>
       <c r="E20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2100</v>
       </c>
       <c r="H20" s="3">
         <v>2100</v>
       </c>
       <c r="I20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-4100</v>
       </c>
       <c r="V20" s="3">
         <v>-4100</v>
       </c>
       <c r="W20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="X20" s="3">
         <v>-5200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E21" s="3">
         <v>14200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-25400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>29300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>17300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>47900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>36100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>31900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>21000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>33500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1693,8 +1732,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1703,7 +1742,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1735,156 +1774,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E23" s="3">
         <v>5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>17400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-38100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-37800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>37300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>25500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>21300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>22600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-19200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2005,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-38500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>23500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>13500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>15100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-38500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>13500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>15100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,16 +2236,19 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2209,37 +2269,37 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>132600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>7100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>16600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>7800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>10900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>10300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>9100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2247,14 +2307,17 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2390,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,8 +2467,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2410,147 +2479,153 @@
         <v>-2300</v>
       </c>
       <c r="E32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2100</v>
       </c>
       <c r="H32" s="3">
         <v>-2100</v>
       </c>
       <c r="I32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>4100</v>
       </c>
       <c r="V32" s="3">
         <v>4100</v>
       </c>
       <c r="W32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="X32" s="3">
         <v>5200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-38500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>142800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>13800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>13500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>15100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2698,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-38500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>142800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>13800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>13500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>15100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E38" s="2">
         <v>44652</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44470</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44379</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44288</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44106</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44015</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43924</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43644</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43553</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43371</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43280</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43189</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43007</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2888,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,82 +2917,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E41" s="3">
         <v>129100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>140800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>121500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>98400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>120700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>104400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>152300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>235600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>270700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>471500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>510000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>30100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>36900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>35400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>27800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>24700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>41200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2980,360 +3069,375 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E43" s="3">
         <v>183300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>213300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>221500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>226800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>271200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>328600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>326200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>320900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>292200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>256800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>230200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>390400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>256300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>373200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>382700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>401900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>316300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>281100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>275100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>261900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>236900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E44" s="3">
         <v>209500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>193100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>195700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>196100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>197300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>185100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>188200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>207300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>193200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>156400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>173100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>163000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>313900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>294600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>303100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>291100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>296600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>367400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>385700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>392600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>390100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>393800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E45" s="3">
         <v>14500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>37300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>39500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>375800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>36300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>359300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>35400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>33000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>27200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>30700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>29300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>28400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>26600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>515100</v>
+      </c>
+      <c r="E46" s="3">
         <v>536400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>546500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>545000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>529200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>557500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>598000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>708600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>808900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>825200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>936500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>953800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>786000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>769000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>773100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>738000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>733500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>761700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>747900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>732900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>724800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>705100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>698600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E47" s="3">
         <v>10100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12600</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3350,156 +3454,165 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>201400</v>
+      </c>
+      <c r="E48" s="3">
         <v>207100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>208800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>211000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>216700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>219200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>223700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>233300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>231900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>233800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>155600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>152200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>154600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>271800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>137100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>189100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>188200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>186700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>185500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>183100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>182300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>178000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>176500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>364500</v>
+      </c>
+      <c r="E49" s="3">
         <v>373100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>378800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>383400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>388700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>390300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>397400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>396800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>446400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>444500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>248800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>245100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>251400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>431700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>254700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>442800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>457500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>470000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>468800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>469900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>468200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>462600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>464300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3685,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3762,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E52" s="3">
         <v>53500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>54100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>73700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>76500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>78900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>64700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>67500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>72000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>71400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>363700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>54000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>298500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>49600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>50200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>54900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>53300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>73500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>73900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>83500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>86900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +3916,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1158100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1180300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1198500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1221700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1216700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1250700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1306400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1411900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1560100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1577600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1418900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1430300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1564800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1536000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1474100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1431600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1442200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1485800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1455500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1459400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1449100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1429200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1426300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4024,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,93 +4053,97 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E57" s="3">
         <v>41400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>60200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>53900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>58300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>65700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>70900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>57100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>54100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>149100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>56800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>136000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>136100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>139200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>127600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>112000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>118900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>112100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>116700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -4018,11 +4151,11 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>1900</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -4030,346 +4163,361 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>129600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>7500</v>
       </c>
       <c r="U58" s="3">
         <v>7500</v>
       </c>
       <c r="V58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="W58" s="3">
         <v>19000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>18900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>120900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>119500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E59" s="3">
         <v>70300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>77100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>99100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>95800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>113900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>166300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>140300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>139900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>133100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>131300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>179500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>237900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>157200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>285300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>128700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>109900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>101900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>111200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>126400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>106800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>115900</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>117700</v>
       </c>
       <c r="Z59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>105100</v>
+      </c>
+      <c r="E60" s="3">
         <v>111700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>120900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>137800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>132300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>159800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>228400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>194300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>198100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>198800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>204000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>238600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>421600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>318400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>298500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>273400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>254100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>248500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>246300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>257300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>244600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>348900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>353900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>197500</v>
+      </c>
+      <c r="E61" s="3">
         <v>197300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>189400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>188400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>187400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>186400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>185400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>285600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>384600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>383600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>187200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>186500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>186300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>280800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>290500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>295600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>316200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>341600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>391700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>394500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>414800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>310100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>296600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E62" s="3">
         <v>84500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>91800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>108700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>117800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>137300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>146100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>161300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>173900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>197900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>204600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>216400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>298800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>294600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>305800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>224300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>229100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>253300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>181800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>188900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>189300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>196400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>208200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4590,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4667,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4744,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>379200</v>
+      </c>
+      <c r="E66" s="3">
         <v>393500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>402200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>435000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>437500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>483500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>560000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>641200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>756700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>780300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>595700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>641400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>906700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>893800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>840900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>793400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>799400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>843400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>819800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>840700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>848700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>855400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>858700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4852,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4927,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5004,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5081,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5158,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>754000</v>
+      </c>
+      <c r="E72" s="3">
         <v>755500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>750400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>746300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>737200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>730900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>728800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>765700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>809800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>815400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>820700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>786800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>649600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>641700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>610100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>592100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>596300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>586800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>587900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>579600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>568900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>561100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>560200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5312,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5389,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5466,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>778900</v>
+      </c>
+      <c r="E76" s="3">
         <v>786700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>796300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>786700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>779200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>767200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>746400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>770700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>803400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>797200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>823200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>788900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>658200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>642200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>633200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>638300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>642800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>642300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>635700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>618700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>600400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>573800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>567600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5620,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E80" s="2">
         <v>44652</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44470</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44379</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44288</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44106</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44015</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43924</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43644</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43553</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43371</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43280</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43189</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43007</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-38500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>142800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>13800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>13500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>15100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,8 +5810,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5622,73 +5820,76 @@
         <v>8800</v>
       </c>
       <c r="E83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F83" s="3">
         <v>9200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>9200</v>
       </c>
       <c r="H83" s="3">
         <v>9200</v>
       </c>
       <c r="I83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J83" s="3">
         <v>11700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10700</v>
-      </c>
-      <c r="U83" s="3">
-        <v>10600</v>
       </c>
       <c r="V83" s="3">
         <v>10600</v>
       </c>
       <c r="W83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="X83" s="3">
         <v>10200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11100</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>11200</v>
       </c>
       <c r="Z83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5962,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6039,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6116,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6193,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6270,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>34600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>68800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-24000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-55400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-33600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>35000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>33700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>56900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>36100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>44000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>18300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-18400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>37700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6378,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6530,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6607,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-303800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>643100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6715,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6501,7 +6734,7 @@
         <v>-5600</v>
       </c>
       <c r="H96" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="I96" s="3">
         <v>-5500</v>
@@ -6513,7 +6746,7 @@
         <v>-5500</v>
       </c>
       <c r="L96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="M96" s="3">
         <v>-5600</v>
@@ -6546,10 +6779,10 @@
         <v>-5600</v>
       </c>
       <c r="W96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="X96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-4900</v>
       </c>
       <c r="Y96" s="3">
         <v>-4900</v>
@@ -6557,8 +6790,11 @@
       <c r="Z96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6867,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6944,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,87 +7021,93 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-106600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-104100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>182900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-132300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>19900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-27700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-26000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-30000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-57700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-26200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-31000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>10000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
@@ -6868,137 +7116,143 @@
         <v>-200</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>23100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-41300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-83300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-176100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-60300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>512900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-16500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>15700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,343 +665,356 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44743</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44652</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44470</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44379</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44288</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44106</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44015</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43924</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43644</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43553</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43371</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43280</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43189</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43007</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E8" s="3">
         <v>160800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>158000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>175100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>179800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>182400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>171600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>185300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>214000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>177900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>207300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>237800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>182700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>174700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>166400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>220900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>157100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>178600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>179400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>473900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>447000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>449000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>435900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>433100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E9" s="3">
         <v>108700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>107500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>116400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>116800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>120400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>118700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>131000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>147100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>121200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>139600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>165200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>121500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>122100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>111900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>147900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>109400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>125200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>126200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>325600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>308600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>314500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>311600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>297700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E10" s="3">
         <v>52100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>50500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>58700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>63000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>62000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>52900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>54300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>66900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>56700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>67700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>72600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>61200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>54500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>73000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>47700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>53400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>53200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>148300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>138400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>134500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>124300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>135400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,28 +1042,29 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E12" s="3">
         <v>5200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3200</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -1106,8 +1120,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1183,74 +1200,77 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>42900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>58700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2500</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1258,21 +1278,24 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E15" s="3">
         <v>2400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2600</v>
       </c>
       <c r="G15" s="3">
         <v>2600</v>
@@ -1280,8 +1303,8 @@
       <c r="H15" s="3">
         <v>2600</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+      <c r="I15" s="3">
+        <v>2600</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1298,8 +1321,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1337,8 +1360,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1389,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E17" s="3">
         <v>158500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>155000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>162100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>163900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>167100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>165500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>222900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>251100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>177600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>208800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>220200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>166100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>164100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>154100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>196700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>164100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>171400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>170800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>432500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>417400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>422500</v>
       </c>
       <c r="Y17" s="3">
         <v>422500</v>
       </c>
       <c r="Z17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="AA17" s="3">
         <v>406400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>41400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>29600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>26500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>26700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1546,162 +1579,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>2300</v>
       </c>
       <c r="F20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G20" s="3">
         <v>2800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2100</v>
       </c>
       <c r="I20" s="3">
         <v>2100</v>
       </c>
       <c r="J20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-4100</v>
       </c>
       <c r="W20" s="3">
         <v>-4100</v>
       </c>
       <c r="X20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E21" s="3">
         <v>13400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-26400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-25400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>29300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>17300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>47900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>36100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>31900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>21000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>33500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1735,8 +1775,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1745,7 +1785,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1777,162 +1817,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-38100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>37300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>25500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>21300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>10200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>22600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-19200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2008,162 +2057,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-31400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-38500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>13500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>15100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-38500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>34200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>23500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>13500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>15100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2239,8 +2297,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2250,8 +2311,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2272,37 +2333,37 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>5300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>132600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>7100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>16600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>7800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>10900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>10300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>9100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2310,14 +2371,17 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2393,8 +2457,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2470,162 +2537,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2300</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>-2300</v>
       </c>
       <c r="F32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2100</v>
       </c>
       <c r="I32" s="3">
         <v>-2100</v>
       </c>
       <c r="J32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>4100</v>
       </c>
       <c r="W32" s="3">
         <v>4100</v>
       </c>
       <c r="X32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>5200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>4100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-38500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>142800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>13800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>16300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>13500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>6300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>15100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2701,167 +2777,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-38500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>142800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>13800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>16300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>13500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>6300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>15100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44743</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44652</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44470</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44379</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44288</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44106</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44015</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43924</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43644</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43553</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43371</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43280</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43189</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43007</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2889,8 +2974,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2918,85 +3004,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E41" s="3">
         <v>80200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>140800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>121500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>98400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>120700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>104400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>152300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>235600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>270700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>471500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>510000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>26200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>27600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>30100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>36900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>35400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>27800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>24700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>41200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3072,316 +3162,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E43" s="3">
         <v>204100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>183300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>213300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>221500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>226800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>271200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>328600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>326200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>320900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>292200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>256800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>230200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>390400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>256300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>373200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>382700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>401900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>316300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>281100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>275100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>261900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>236900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>221800</v>
+      </c>
+      <c r="E44" s="3">
         <v>214700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>209500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>193100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>195700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>196100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>197300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>185100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>188200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>207300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>193200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>156400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>173100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>163000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>313900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>294600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>303100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>291100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>296600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>367400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>385700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>392600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>390100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>393800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E45" s="3">
         <v>16100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>37300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>375800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>36300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>359300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>35400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>33000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>27200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>30700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>29300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>28400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>26600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>505900</v>
+      </c>
+      <c r="E46" s="3">
         <v>515100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>536400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>546500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>545000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>529200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>557500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>598000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>708600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>808900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>825200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>936500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>953800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>786000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>769000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>773100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>738000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>733500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>761700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>747900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>732900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>724800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>705100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>698600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3389,58 +3494,58 @@
         <v>19900</v>
       </c>
       <c r="E47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F47" s="3">
         <v>10100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12600</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
@@ -3457,162 +3562,171 @@
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>206400</v>
+      </c>
+      <c r="E48" s="3">
         <v>201400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>207100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>208800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>211000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>216700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>219200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>223700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>233300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>231900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>233800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>155600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>152200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>154600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>271800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>137100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>189100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>188200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>186700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>185500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>183100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>182300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>178000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>176500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>776200</v>
+      </c>
+      <c r="E49" s="3">
         <v>364500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>373100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>378800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>383400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>388700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>390300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>397400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>396800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>446400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>444500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>248800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>245100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>251400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>431700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>254700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>442800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>457500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>470000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>468800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>469900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>468200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>462600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>464300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3688,8 +3802,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3765,85 +3882,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E52" s="3">
         <v>57200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>53500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>54100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>71900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>73700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>76500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>78900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>64700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>67000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>67500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>72000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>71400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>363700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>54000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>298500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>49600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>50200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>54900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>53300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>73500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>73900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>83500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>86900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3919,85 +4042,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1564500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1158100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1180300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1198500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1221700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1216700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1250700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1306400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1411900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1560100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1577600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1418900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1430300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1564800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1536000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1474100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1431600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1442200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1485800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1455500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1459400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1449100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1429200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1426300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4025,8 +4154,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4054,85 +4184,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E57" s="3">
         <v>32200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>60200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>58300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>65700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>70900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>57100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>54100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>149100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>56800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>136000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>136100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>139200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>127600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>112000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>118900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>112100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>116700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4142,11 +4276,11 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>1700</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -4154,11 +4288,11 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>1900</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -4166,358 +4300,373 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>129600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>12100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>7500</v>
       </c>
       <c r="V58" s="3">
         <v>7500</v>
       </c>
       <c r="W58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="X58" s="3">
         <v>19000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>18900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>120900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>119500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E59" s="3">
         <v>72900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>77100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>99100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>95800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>113900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>166300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>140300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>139900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>133100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>131300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>179500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>237900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>157200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>285300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>128700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>109900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>101900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>111200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>126400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>106800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>115900</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>117700</v>
       </c>
       <c r="AA59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E60" s="3">
         <v>105100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>111700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>120900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>137800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>132300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>159800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>228400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>194300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>198100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>198800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>204000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>238600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>421600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>318400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>298500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>273400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>254100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>248500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>246300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>257300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>244600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>348900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>353900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>609800</v>
+      </c>
+      <c r="E61" s="3">
         <v>197500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>197300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>189400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>188400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>187400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>186400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>185400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>285600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>384600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>383600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>187200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>186500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>186300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>280800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>290500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>295600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>316200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>341600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>391700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>394500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>414800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>310100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>296600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E62" s="3">
         <v>76500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>84500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>91800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>108700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>117800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>137300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>146100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>161300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>173900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>197900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>204600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>216400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>298800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>294600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>305800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>224300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>229100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>253300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>181800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>188900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>189300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>196400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>208200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4593,8 +4742,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4670,8 +4822,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4747,85 +4902,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>797900</v>
+      </c>
+      <c r="E66" s="3">
         <v>379200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>393500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>402200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>435000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>437500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>483500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>560000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>641200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>756700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>780300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>595700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>641400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>906700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>893800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>840900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>793400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>799400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>843400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>819800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>840700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>848700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>855400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>858700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4853,8 +5014,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4930,8 +5092,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5007,8 +5172,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5084,8 +5252,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5161,85 +5332,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E72" s="3">
         <v>754000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>755500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>750400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>746300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>737200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>730900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>728800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>765700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>809800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>815400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>820700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>786800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>649600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>641700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>610100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>592100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>596300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>586800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>587900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>579600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>568900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>561100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>560200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5315,8 +5492,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5392,8 +5572,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5469,85 +5652,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>766600</v>
+      </c>
+      <c r="E76" s="3">
         <v>778900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>786700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>796300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>786700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>779200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>767200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>746400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>770700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>803400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>797200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>823200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>788900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>658200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>642200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>633200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>638300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>642800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>642300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>635700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>618700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>600400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>573800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>567600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5623,167 +5812,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44743</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44652</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44470</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44379</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44288</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44106</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44015</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43924</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43644</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43553</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43371</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43280</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43189</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43007</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-38500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>142800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>13800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>16300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>13500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>6300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>15100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5811,85 +6009,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8800</v>
+        <v>9400</v>
       </c>
       <c r="E83" s="3">
         <v>8800</v>
       </c>
       <c r="F83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G83" s="3">
         <v>9200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>9200</v>
       </c>
       <c r="I83" s="3">
         <v>9200</v>
       </c>
       <c r="J83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K83" s="3">
         <v>11700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10700</v>
-      </c>
-      <c r="V83" s="3">
-        <v>10600</v>
       </c>
       <c r="W83" s="3">
         <v>10600</v>
       </c>
       <c r="X83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Y83" s="3">
         <v>10200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11100</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>11200</v>
       </c>
       <c r="AA83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5965,8 +6167,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6042,8 +6247,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6119,8 +6327,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6196,8 +6407,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6273,85 +6487,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>34600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>68800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-55400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-33600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>35000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>33700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>56900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>36100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>44000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>18300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-18400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>37700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6379,85 +6599,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6533,8 +6757,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6610,85 +6837,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-447300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-303800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>643100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6716,8 +6949,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6737,7 +6971,7 @@
         <v>-5600</v>
       </c>
       <c r="I96" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="J96" s="3">
         <v>-5500</v>
@@ -6749,7 +6983,7 @@
         <v>-5500</v>
       </c>
       <c r="M96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="N96" s="3">
         <v>-5600</v>
@@ -6782,10 +7016,10 @@
         <v>-5600</v>
       </c>
       <c r="X96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-4900</v>
       </c>
       <c r="Z96" s="3">
         <v>-4900</v>
@@ -6793,8 +7027,11 @@
       <c r="AA96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6870,8 +7107,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6947,8 +7187,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7024,93 +7267,99 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>405700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-106600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-104100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>182900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-132300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>19900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-26000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-30000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-57700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-26200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-31000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>10000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-14200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-200</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
@@ -7119,67 +7368,70 @@
         <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>100</v>
       </c>
       <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7187,72 +7439,75 @@
         <v>-48900</v>
       </c>
       <c r="E102" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-22400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-41300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-83300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-176100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-60300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>512900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-16500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>15700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,356 +665,368 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44743</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44652</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44470</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44379</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44288</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44106</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44015</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43924</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43644</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43553</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43371</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43280</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43189</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43007</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>197100</v>
+      </c>
+      <c r="E8" s="3">
         <v>172000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>160800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>158000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>175100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>179800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>182400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>171600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>185300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>214000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>177900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>207300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>237800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>182700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>174700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>166400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>220900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>157100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>178600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>179400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>473900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>447000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>449000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>435900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>433100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>132200</v>
+      </c>
+      <c r="E9" s="3">
         <v>116200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>108700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>107500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>116400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>116800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>120400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>118700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>131000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>147100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>121200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>139600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>165200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>121500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>122100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>111900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>147900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>109400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>125200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>126200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>325600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>308600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>314500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>311600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>297700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E10" s="3">
         <v>55800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>52100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>50500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>58700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>63000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>62000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>66900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>56700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>67700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>72600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>52600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>54500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>73000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>47700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>53400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>53200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>148300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>138400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>134500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>124300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>135400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,31 +1055,32 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3200</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -1123,8 +1136,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1203,77 +1219,80 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>42900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>58700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2500</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
@@ -1281,24 +1300,27 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E15" s="3">
         <v>3100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2600</v>
       </c>
       <c r="H15" s="3">
         <v>2600</v>
@@ -1306,8 +1328,8 @@
       <c r="I15" s="3">
         <v>2600</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="J15" s="3">
+        <v>2600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1324,8 +1346,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1363,8 +1385,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1390,168 +1415,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>269300</v>
+      </c>
+      <c r="E17" s="3">
         <v>171600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>158500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>155000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>162100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>163900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>167100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>165500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>222900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>251100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>177600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>208800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>220200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>166100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>164100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>154100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>196700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>164100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>171400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>170800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>432500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>417400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>422500</v>
       </c>
       <c r="Z17" s="3">
         <v>422500</v>
       </c>
       <c r="AA17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="AB17" s="3">
         <v>406400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-37100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>41400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>29600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>26500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>13400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>26700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1580,168 +1612,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2300</v>
       </c>
       <c r="F20" s="3">
         <v>2300</v>
       </c>
       <c r="G20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H20" s="3">
         <v>2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2100</v>
       </c>
       <c r="J20" s="3">
         <v>2100</v>
       </c>
       <c r="K20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-4100</v>
       </c>
       <c r="X20" s="3">
         <v>-4100</v>
       </c>
       <c r="Y20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E21" s="3">
         <v>10100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-26400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>17300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>29300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>17300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>47900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>36100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>31900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>21000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>33500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1778,8 +1817,8 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1788,7 +1827,7 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1820,168 +1859,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-73700</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-38100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>37300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>25500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>21300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>10200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>22600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-19200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2060,168 +2108,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>13500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>6300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>15100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-38500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>34200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>13500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>6300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>15100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2300,13 +2357,16 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2314,8 +2374,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2336,37 +2396,37 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>5300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>132600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>7100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>16600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>7800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>10900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>10300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>9100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2374,14 +2434,17 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2460,8 +2523,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2540,168 +2606,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-2300</v>
       </c>
       <c r="F32" s="3">
         <v>-2300</v>
       </c>
       <c r="G32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-2100</v>
       </c>
       <c r="J32" s="3">
         <v>-2100</v>
       </c>
       <c r="K32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>4100</v>
       </c>
       <c r="X32" s="3">
         <v>4100</v>
       </c>
       <c r="Y32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>5200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>4100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-38500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>142800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>15100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>13800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>16300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>13500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>6300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>15100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2780,173 +2855,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-38500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>142800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>15100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>13800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>16300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>13500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>6300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>15100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44743</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44652</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44470</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44379</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44288</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44106</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44015</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43924</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43644</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43553</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43371</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43280</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43189</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43007</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2975,8 +3059,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3005,88 +3090,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E41" s="3">
         <v>31400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>80200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>129100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>140800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>121500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>98400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>120700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>152300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>235600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>270700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>471500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>510000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>27600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>30100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>36900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>35400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>27800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>24700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>41200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3165,390 +3254,405 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>215500</v>
+      </c>
+      <c r="E43" s="3">
         <v>237000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>204100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>183300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>213300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>221500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>226800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>271200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>328600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>326200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>320900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>292200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>256800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>230200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>390400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>256300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>373200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>382700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>401900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>316300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>281100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>275100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>261900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>236900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E44" s="3">
         <v>221800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>214700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>209500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>193100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>195700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>196100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>197300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>185100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>188200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>207300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>193200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>156400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>173100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>163000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>313900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>294600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>303100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>291100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>296600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>367400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>385700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>392600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>390100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>393800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E45" s="3">
         <v>15700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>37300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>40400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>375800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>36300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>359300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>35400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>32200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>33000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>27200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>30700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>29300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>28400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>26600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>431600</v>
+      </c>
+      <c r="E46" s="3">
         <v>505900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>515100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>536400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>546500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>545000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>529200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>557500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>598000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>708600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>808900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>825200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>936500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>953800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>786000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>769000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>773100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>738000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>733500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>761700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>747900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>732900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>724800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>705100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>698600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19900</v>
+        <v>10700</v>
       </c>
       <c r="E47" s="3">
         <v>19900</v>
       </c>
       <c r="F47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="G47" s="3">
         <v>10100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12600</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
@@ -3565,168 +3669,177 @@
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E48" s="3">
         <v>206400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>201400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>207100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>208800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>211000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>216700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>219200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>223700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>233300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>231900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>233800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>155600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>152200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>154600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>271800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>137100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>189100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>188200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>186700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>185500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>183100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>182300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>178000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>176500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>752200</v>
+      </c>
+      <c r="E49" s="3">
         <v>776200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>364500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>373100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>378800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>383400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>388700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>390300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>397400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>396800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>446400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>444500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>248800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>245100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>251400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>431700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>254700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>442800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>457500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>470000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>468800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>469900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>468200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>462600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>464300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3805,8 +3918,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3885,88 +4001,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E52" s="3">
         <v>56200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>57200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>53500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>54100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>71900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>73700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>76500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>64700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>67000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>67500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>72000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>71400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>363700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>54000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>298500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>49600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>50200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>54900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>53300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>73500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>73900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>83500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>86900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4045,88 +4167,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1491300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1564500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1158100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1180300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1198500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1221700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1216700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1250700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1306400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1411900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1560100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1577600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1418900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1430300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1564800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1536000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1474100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1431600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1442200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1485800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1455500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1459400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1449100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1429200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1426300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4155,8 +4283,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4185,93 +4314,97 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E57" s="3">
         <v>37300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>60200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>58300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>65700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>70900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>57100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>54100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>149100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>56800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>136000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>136100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>139200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>127600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>112000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>118900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>112100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>116700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>1800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -4279,11 +4412,11 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>1700</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -4291,11 +4424,11 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>1900</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -4303,370 +4436,385 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>129600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>12100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>7500</v>
       </c>
       <c r="W58" s="3">
         <v>7500</v>
       </c>
       <c r="X58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="Y58" s="3">
         <v>19000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>18900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>120900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>119500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E59" s="3">
         <v>78100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>72900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>70300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>77100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>99100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>95800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>113900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>166300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>140300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>139900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>133100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>131300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>179500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>237900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>157200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>285300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>128700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>109900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>101900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>111200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>126400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>106800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>115900</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>117700</v>
       </c>
       <c r="AB59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E60" s="3">
         <v>115400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>105100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>111700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>120900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>137800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>132300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>159800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>228400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>194300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>198100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>198800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>204000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>238600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>421600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>318400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>298500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>273400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>254100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>248500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>246300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>257300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>244600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>348900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>353900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>561100</v>
+      </c>
+      <c r="E61" s="3">
         <v>609800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>197500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>197300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>189400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>188400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>187400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>186400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>185400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>285600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>384600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>383600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>187200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>186500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>186300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>280800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>290500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>295600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>316200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>341600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>391700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>394500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>414800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>310100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>296600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E62" s="3">
         <v>72800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>76500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>84500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>91800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>108700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>117800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>137300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>146100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>161300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>173900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>197900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>204600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>216400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>298800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>294600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>305800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>224300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>229100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>253300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>181800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>188900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>189300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>196400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>208200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4745,8 +4893,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4825,8 +4976,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4905,88 +5059,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>807400</v>
+      </c>
+      <c r="E66" s="3">
         <v>797900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>379200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>393500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>402200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>435000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>437500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>483500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>560000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>641200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>756700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>780300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>595700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>641400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>906700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>893800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>840900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>793400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>799400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>843400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>819800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>840700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>848700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>855400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>858700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5015,8 +5175,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5095,8 +5256,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5175,8 +5339,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5255,8 +5422,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5335,88 +5505,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>688500</v>
+      </c>
+      <c r="E72" s="3">
         <v>749000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>754000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>755500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>750400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>746300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>737200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>730900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>728800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>765700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>809800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>815400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>820700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>786800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>649600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>641700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>610100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>592100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>596300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>586800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>587900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>579600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>568900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>561100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>560200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5495,8 +5671,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5575,8 +5754,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5655,88 +5837,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E76" s="3">
         <v>766600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>778900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>786700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>796300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>786700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>779200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>767200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>746400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>770700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>803400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>797200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>823200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>788900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>658200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>642200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>633200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>638300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>642800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>642300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>635700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>618700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>600400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>573800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>567600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5815,173 +6003,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44743</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44652</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44470</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44379</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44288</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44106</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44015</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43924</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43644</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43553</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43371</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43280</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43189</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43007</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-38500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>142800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>15100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>13800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>16300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>13500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>6300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>15100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6010,88 +6207,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E83" s="3">
         <v>9400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>8800</v>
       </c>
       <c r="F83" s="3">
         <v>8800</v>
       </c>
       <c r="G83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H83" s="3">
         <v>9200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>9200</v>
       </c>
       <c r="J83" s="3">
         <v>9200</v>
       </c>
       <c r="K83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="L83" s="3">
         <v>11700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10700</v>
-      </c>
-      <c r="W83" s="3">
-        <v>10600</v>
       </c>
       <c r="X83" s="3">
         <v>10600</v>
       </c>
       <c r="Y83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Z83" s="3">
         <v>10200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>11100</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>11200</v>
       </c>
       <c r="AB83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6170,8 +6371,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6250,8 +6454,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6330,8 +6537,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6410,8 +6620,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6490,88 +6703,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>34600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>68800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-24000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-55400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-33600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-20900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>35000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>33700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>36800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>56900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>36100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>44000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>18300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-18400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>37700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6600,88 +6819,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-14800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6760,8 +6983,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6840,88 +7066,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-447300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-303800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>643100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6950,8 +7182,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6974,7 +7207,7 @@
         <v>-5600</v>
       </c>
       <c r="J96" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="K96" s="3">
         <v>-5500</v>
@@ -6986,7 +7219,7 @@
         <v>-5500</v>
       </c>
       <c r="N96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="O96" s="3">
         <v>-5600</v>
@@ -7019,10 +7252,10 @@
         <v>-5600</v>
       </c>
       <c r="Y96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-4900</v>
       </c>
       <c r="AA96" s="3">
         <v>-4900</v>
@@ -7030,8 +7263,11 @@
       <c r="AB96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7110,8 +7346,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7190,8 +7429,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7270,99 +7512,105 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E100" s="3">
         <v>405700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-106600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-104100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>182900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-132300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>19900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-26000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-30000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-57700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-26200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-31000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>10000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-14200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-200</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
@@ -7371,143 +7619,149 @@
         <v>-200</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
       </c>
       <c r="N101" s="3">
+        <v>100</v>
+      </c>
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-48900</v>
+        <v>-7200</v>
       </c>
       <c r="E102" s="3">
         <v>-48900</v>
       </c>
       <c r="F102" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="G102" s="3">
         <v>-11700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>23100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-22400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-83300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-176100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-60300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>512900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>7700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-16500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>15700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,368 +665,381 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44743</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44652</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44470</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44379</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44288</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44106</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44015</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43924</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43644</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43553</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43371</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43280</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43189</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43007</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>194500</v>
+      </c>
+      <c r="E8" s="3">
         <v>197100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>172000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>160800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>158000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>175100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>179800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>182400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>171600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>185300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>214000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>177900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>207300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>237800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>182700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>174700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>166400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>220900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>157100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>178600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>179400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>473900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>447000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>449000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>435900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>433100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E9" s="3">
         <v>132200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>116200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>108700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>107500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>116400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>116800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>120400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>118700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>131000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>147100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>121200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>139600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>165200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>121500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>122100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>111900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>147900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>109400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>125200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>126200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>325600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>308600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>314500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>311600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>297700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E10" s="3">
         <v>64900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>52100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>50500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>58700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>63000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>62000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>66900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>56700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>67700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>72600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>52600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>54500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>73000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>47700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>53400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>53200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>148300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>138400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>134500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>124300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>135400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,34 +1069,35 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E12" s="3">
         <v>5300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3200</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
@@ -1139,8 +1153,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1222,80 +1239,83 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3">
         <v>76800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>42900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>58700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2500</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
@@ -1303,27 +1323,30 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E15" s="3">
         <v>7300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2600</v>
       </c>
       <c r="I15" s="3">
         <v>2600</v>
@@ -1331,8 +1354,8 @@
       <c r="J15" s="3">
         <v>2600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>2600</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1349,8 +1372,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1388,8 +1411,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1416,174 +1442,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>185900</v>
+      </c>
+      <c r="E17" s="3">
         <v>269300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>171600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>158500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>155000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>162100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>163900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>167100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>165500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>222900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>251100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>177600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>208800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>220200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>166100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>164100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>154100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>196700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>164100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>171400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>170800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>432500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>417400</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>422500</v>
       </c>
       <c r="AA17" s="3">
         <v>422500</v>
       </c>
       <c r="AB17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="AC17" s="3">
         <v>406400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-72200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-37600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-37100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>41400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>29600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>26500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>13400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>26700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,197 +1646,204 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2300</v>
       </c>
       <c r="G20" s="3">
         <v>2300</v>
       </c>
       <c r="H20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I20" s="3">
         <v>2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2100</v>
       </c>
       <c r="K20" s="3">
         <v>2100</v>
       </c>
       <c r="L20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-4100</v>
       </c>
       <c r="Y20" s="3">
         <v>-4100</v>
       </c>
       <c r="Z20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-5200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-4100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-60000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-25400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>17300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>29300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>17300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>47900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>36100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>31900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>21000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>33500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1820,8 +1860,8 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1830,7 +1870,7 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1862,174 +1902,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-73700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-37800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>37300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>25500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>21300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>10200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>22600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-18700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>9200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>7500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2111,174 +2160,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-54900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-38500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>23500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>16300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>13500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>6300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>15100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-54900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-38500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>34200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>15800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>23500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>16300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>13500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>6300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>15100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2360,16 +2418,19 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -2377,8 +2438,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2399,37 +2460,37 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>5300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>132600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>7100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>16600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>7800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>10900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>10300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>9100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2437,14 +2498,17 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2526,8 +2590,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2609,174 +2676,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2300</v>
       </c>
       <c r="G32" s="3">
         <v>-2300</v>
       </c>
       <c r="H32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2100</v>
       </c>
       <c r="K32" s="3">
         <v>-2100</v>
       </c>
       <c r="L32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
-      </c>
-      <c r="X32" s="3">
-        <v>4100</v>
       </c>
       <c r="Y32" s="3">
         <v>4100</v>
       </c>
       <c r="Z32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>5200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>4100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-54900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-38500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>142800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>15100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>14100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>13800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>16300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>13500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>6300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>15100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2858,179 +2934,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-54900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-38500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>142800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>15100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>14100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>13800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>16300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>13500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>6300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>15100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44743</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44652</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44470</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44379</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44288</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44106</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44015</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43924</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43644</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43553</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43371</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43280</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43189</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43007</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3060,8 +3145,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3091,91 +3177,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E41" s="3">
         <v>24200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>80200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>129100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>140800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>121500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>98400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>120700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>152300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>235600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>270700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>471500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>510000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>26200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>27600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>30100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>36900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>35400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>27800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>24700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>41200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3257,405 +3347,420 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>218800</v>
+      </c>
+      <c r="E43" s="3">
         <v>215500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>237000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>204100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>183300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>213300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>221500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>226800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>271200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>328600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>326200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>320900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>292200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>256800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>230200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>390400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>256300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>373200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>382700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>401900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>316300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>281100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>275100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>261900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>236900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E44" s="3">
         <v>176500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>221800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>214700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>209500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>193100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>195700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>196100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>197300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>185100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>188200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>207300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>193200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>156400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>173100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>163000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>313900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>294600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>303100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>291100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>296600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>367400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>385700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>392600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>390100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>393800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E45" s="3">
         <v>15400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>375800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>36300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>359300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>35400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>33000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>27200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>30700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>29300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>28400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>26600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>482200</v>
+      </c>
+      <c r="E46" s="3">
         <v>431600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>505900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>515100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>536400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>546500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>545000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>529200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>557500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>598000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>708600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>808900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>825200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>936500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>953800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>786000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>769000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>773100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>738000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>733500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>761700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>747900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>732900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>724800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>705100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>698600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>10700</v>
-      </c>
-      <c r="E47" s="3">
-        <v>19900</v>
       </c>
       <c r="F47" s="3">
         <v>19900</v>
       </c>
       <c r="G47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="H47" s="3">
         <v>10100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12600</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>8</v>
@@ -3672,174 +3777,183 @@
       <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>209900</v>
+      </c>
+      <c r="E48" s="3">
         <v>209000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>206400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>201400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>207100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>208800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>211000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>216700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>219200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>223700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>233300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>231900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>233800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>155600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>152200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>154600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>271800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>137100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>189100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>188200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>186700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>185500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>183100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>182300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>178000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>176500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>747900</v>
+      </c>
+      <c r="E49" s="3">
         <v>752200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>776200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>364500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>373100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>378800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>383400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>388700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>390300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>397400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>396800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>446400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>444500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>248800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>245100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>251400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>431700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>254700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>442800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>457500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>470000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>468800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>469900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>468200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>462600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>464300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3921,8 +4035,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4004,91 +4121,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E52" s="3">
         <v>87900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>56200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>57200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>53500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>54100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>71900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>73700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>76500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>78900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>64700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>67000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>67500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>72000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>71400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>363700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>54000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>298500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>49600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>50200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>54900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>53300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>73500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>73900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>83500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>86900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4170,91 +4293,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1538700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1491300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1564500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1158100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1180300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1198500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1221700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1216700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1250700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1306400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1411900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1560100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1577600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1418900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1430300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1564800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1536000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1474100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1431600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1442200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1485800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1455500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1459400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1449100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1429200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1426300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4284,8 +4413,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4315,99 +4445,103 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E57" s="3">
         <v>48300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>60200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>58300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>65700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>70900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>57100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>54100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>149100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>56800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>136000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>136100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>139200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>127600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>112000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>118900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>112100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>116700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -4415,11 +4549,11 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>1700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -4427,11 +4561,11 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>1900</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -4439,382 +4573,397 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>129600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>12100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>7500</v>
       </c>
       <c r="X58" s="3">
         <v>7500</v>
       </c>
       <c r="Y58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="Z58" s="3">
         <v>19000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>18900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>120900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>119500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E59" s="3">
         <v>76500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>78100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>72900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>70300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>77100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>99100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>95800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>113900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>166300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>140300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>139900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>133100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>131300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>179500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>237900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>157200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>285300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>128700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>109900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>101900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>111200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>126400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>106800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>115900</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>117700</v>
       </c>
       <c r="AC59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E60" s="3">
         <v>126600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>115400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>105100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>111700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>120900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>137800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>132300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>159800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>228400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>194300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>198100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>198800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>204000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>238600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>421600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>318400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>298500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>273400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>254100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>248500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>246300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>257300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>244600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>348900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>353900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>609300</v>
+      </c>
+      <c r="E61" s="3">
         <v>561100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>609800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>197500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>197300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>189400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>188400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>187400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>186400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>185400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>285600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>384600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>383600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>187200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>186500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>186300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>280800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>290500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>295600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>316200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>341600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>391700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>394500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>414800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>310100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>296600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E62" s="3">
         <v>119700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>72800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>76500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>84500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>91800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>108700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>117800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>137300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>146100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>161300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>173900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>197900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>204600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>216400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>298800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>294600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>305800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>224300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>229100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>253300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>181800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>188900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>189300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>196400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>208200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4896,8 +5045,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4979,8 +5131,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5062,91 +5217,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>854700</v>
+      </c>
+      <c r="E66" s="3">
         <v>807400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>797900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>379200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>393500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>402200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>435000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>437500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>483500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>560000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>641200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>756700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>780300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>595700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>641400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>906700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>893800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>840900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>793400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>799400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>843400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>819800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>840700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>848700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>855400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>858700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5176,8 +5337,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5259,8 +5421,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5342,8 +5507,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5425,8 +5593,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5508,91 +5679,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>682800</v>
+      </c>
+      <c r="E72" s="3">
         <v>688500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>749000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>754000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>755500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>750400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>746300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>737200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>730900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>728800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>765700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>809800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>815400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>820700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>786800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>649600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>641700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>610100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>592100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>596300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>586800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>587900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>579600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>568900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>561100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>560200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5674,8 +5851,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5757,8 +5937,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5840,8 +6023,11 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5849,82 +6035,85 @@
         <v>684000</v>
       </c>
       <c r="E76" s="3">
+        <v>684000</v>
+      </c>
+      <c r="F76" s="3">
         <v>766600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>778900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>786700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>796300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>786700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>779200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>767200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>746400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>770700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>803400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>797200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>823200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>788900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>658200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>642200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>633200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>638300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>642800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>642300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>635700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>618700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>600400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>573800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>567600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6006,179 +6195,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44743</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44652</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44470</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44379</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44288</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44106</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44015</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43924</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43644</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43553</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43371</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43280</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43189</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43007</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-54900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-38500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>142800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>15100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>14100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>13800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>16300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>13500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>6300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>15100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6208,91 +6406,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E83" s="3">
         <v>13700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>8800</v>
       </c>
       <c r="G83" s="3">
         <v>8800</v>
       </c>
       <c r="H83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I83" s="3">
         <v>9200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>9200</v>
       </c>
       <c r="K83" s="3">
         <v>9200</v>
       </c>
       <c r="L83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="M83" s="3">
         <v>11700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>10700</v>
-      </c>
-      <c r="X83" s="3">
-        <v>10600</v>
       </c>
       <c r="Y83" s="3">
         <v>10600</v>
       </c>
       <c r="Z83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="AA83" s="3">
         <v>10200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>11100</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>11200</v>
       </c>
       <c r="AC83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6374,8 +6576,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6457,8 +6662,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6540,8 +6748,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6623,8 +6834,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6706,91 +6920,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>54700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>34600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>68800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-24000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-55400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-20900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>22600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>35000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>33700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>36800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>56900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>36100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>44000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>18300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-18400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>37700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6820,91 +7040,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-14800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-11700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6986,8 +7210,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7069,91 +7296,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-447300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-303800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>643100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7183,8 +7416,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7210,7 +7444,7 @@
         <v>-5600</v>
       </c>
       <c r="K96" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="L96" s="3">
         <v>-5500</v>
@@ -7222,7 +7456,7 @@
         <v>-5500</v>
       </c>
       <c r="O96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="P96" s="3">
         <v>-5600</v>
@@ -7255,10 +7489,10 @@
         <v>-5600</v>
       </c>
       <c r="Z96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-4900</v>
       </c>
       <c r="AB96" s="3">
         <v>-4900</v>
@@ -7266,8 +7500,11 @@
       <c r="AC96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7349,8 +7586,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7432,8 +7672,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7515,105 +7758,111 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-56000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>405700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-106600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-104100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>182900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-132300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>19900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-27700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-26000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-30000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-57700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-26200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-31000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>10000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-14200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-200</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
@@ -7622,146 +7871,152 @@
         <v>-200</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
       <c r="O101" s="3">
+        <v>100</v>
+      </c>
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-48900</v>
       </c>
       <c r="F102" s="3">
         <v>-48900</v>
       </c>
       <c r="G102" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="H102" s="3">
         <v>-11700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>23100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-22400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-83300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-176100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-60300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>512900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>7700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-16500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>15700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,381 +665,394 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44743</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44652</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44470</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44379</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44288</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44106</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44015</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43924</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43644</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43553</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43371</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43280</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43189</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43007</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>195200</v>
+      </c>
+      <c r="E8" s="3">
         <v>194500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>197100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>172000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>160800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>158000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>175100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>179800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>182400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>171600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>185300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>214000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>177900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>207300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>237800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>182700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>174700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>166400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>220900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>157100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>178600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>179400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>473900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>447000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>449000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>435900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>433100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>127000</v>
+        <v>122300</v>
       </c>
       <c r="E9" s="3">
+        <v>127900</v>
+      </c>
+      <c r="F9" s="3">
         <v>132200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>116200</v>
       </c>
-      <c r="G9" s="3">
-        <v>108700</v>
-      </c>
       <c r="H9" s="3">
-        <v>107500</v>
+        <v>109000</v>
       </c>
       <c r="I9" s="3">
+        <v>107700</v>
+      </c>
+      <c r="J9" s="3">
         <v>116400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>116800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>120400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>118700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>131000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>147100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>121200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>139600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>165200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>121500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>122100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>111900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>147900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>109400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>125200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>126200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>325600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>308600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>314500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>311600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>297700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>67500</v>
+        <v>72900</v>
       </c>
       <c r="E10" s="3">
+        <v>66600</v>
+      </c>
+      <c r="F10" s="3">
         <v>64900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>55800</v>
       </c>
-      <c r="G10" s="3">
-        <v>52100</v>
-      </c>
       <c r="H10" s="3">
-        <v>50500</v>
+        <v>51800</v>
       </c>
       <c r="I10" s="3">
+        <v>50300</v>
+      </c>
+      <c r="J10" s="3">
         <v>58700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>63000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>66900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>67700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>72600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>61200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>52600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>54500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>73000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>47700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>53400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>53200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>148300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>138400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>134500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>124300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>135400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,37 +1083,38 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E12" s="3">
         <v>5900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3200</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
@@ -1156,8 +1170,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1242,83 +1259,86 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3">
-        <v>76800</v>
-      </c>
       <c r="F14" s="3">
+        <v>86000</v>
+      </c>
+      <c r="G14" s="3">
         <v>-700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>42900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>58700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>11300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2500</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
@@ -1326,10 +1346,13 @@
         <v>0</v>
       </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1337,19 +1360,19 @@
         <v>7200</v>
       </c>
       <c r="E15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F15" s="3">
         <v>7300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2600</v>
       </c>
       <c r="J15" s="3">
         <v>2600</v>
@@ -1357,8 +1380,8 @@
       <c r="K15" s="3">
         <v>2600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>2600</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1375,8 +1398,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1414,8 +1437,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1443,180 +1469,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>185900</v>
+        <v>177600</v>
       </c>
       <c r="E17" s="3">
+        <v>186900</v>
+      </c>
+      <c r="F17" s="3">
         <v>269300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>171600</v>
       </c>
-      <c r="G17" s="3">
-        <v>158500</v>
-      </c>
       <c r="H17" s="3">
-        <v>155000</v>
+        <v>158900</v>
       </c>
       <c r="I17" s="3">
+        <v>155200</v>
+      </c>
+      <c r="J17" s="3">
         <v>162100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>163900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>167100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>165500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>222900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>251100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>177600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>208800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>220200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>166100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>164100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>154100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>196700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>164100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>171400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>170800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>432500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>417400</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>422500</v>
       </c>
       <c r="AB17" s="3">
         <v>422500</v>
       </c>
       <c r="AC17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="AD17" s="3">
         <v>406400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>15900</v>
+      </c>
+      <c r="L18" s="3">
+        <v>15300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R18" s="3">
+        <v>17600</v>
+      </c>
+      <c r="S18" s="3">
+        <v>16600</v>
+      </c>
+      <c r="T18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="U18" s="3">
+        <v>12300</v>
+      </c>
+      <c r="V18" s="3">
+        <v>24200</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="X18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>8600</v>
       </c>
-      <c r="E18" s="3">
-        <v>-72200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>15900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>15300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>6100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-37100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>17600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>16600</v>
-      </c>
-      <c r="S18" s="3">
-        <v>10600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>12300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>24200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="W18" s="3">
-        <v>7200</v>
-      </c>
-      <c r="X18" s="3">
-        <v>8600</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>41400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>29600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>26500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>13400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>26700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1647,180 +1680,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2300</v>
       </c>
       <c r="H20" s="3">
         <v>2300</v>
       </c>
       <c r="I20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J20" s="3">
         <v>2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2100</v>
       </c>
       <c r="L20" s="3">
         <v>2100</v>
       </c>
       <c r="M20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-4100</v>
       </c>
       <c r="Z20" s="3">
         <v>-4100</v>
       </c>
       <c r="AA20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-4100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H21" s="3">
         <v>13100</v>
       </c>
-      <c r="E21" s="3">
-        <v>-60000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>10100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>13400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>14200</v>
-      </c>
       <c r="I21" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J21" s="3">
         <v>25000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-26400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-25400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>17300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>29300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>17300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>47900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>36100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>31900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>21000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>33500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1845,8 +1885,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1863,8 +1903,8 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1873,7 +1913,7 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1905,180 +1945,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-73700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
-        <v>4600</v>
-      </c>
       <c r="H23" s="3">
-        <v>5300</v>
+        <v>4300</v>
       </c>
       <c r="I23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J23" s="3">
         <v>15800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-38100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-37800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>37300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>25500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>21300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>10200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>22600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-18700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="O24" s="3">
+        <v>700</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="S24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>5500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="U24" s="3">
-        <v>6700</v>
-      </c>
-      <c r="V24" s="3">
-        <v>600</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>7500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2163,180 +2212,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-54900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
-        <v>4100</v>
-      </c>
       <c r="H26" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I26" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J26" s="3">
         <v>9200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-38500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>34200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>15800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>23500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>16300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>13500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>6300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>15100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-54900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
-        <v>4100</v>
-      </c>
       <c r="H27" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I27" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J27" s="3">
         <v>9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-38500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>34200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>15800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>23500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>16300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>13500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>6300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>15100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2421,25 +2479,28 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2463,37 +2524,37 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>5300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>132600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>7100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>16600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>7800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>10900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>10300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>9100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2501,14 +2562,17 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2593,8 +2657,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2679,180 +2746,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E32" s="3">
         <v>8600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2300</v>
       </c>
       <c r="H32" s="3">
         <v>-2300</v>
       </c>
       <c r="I32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-2100</v>
       </c>
       <c r="L32" s="3">
         <v>-2100</v>
       </c>
       <c r="M32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>4100</v>
       </c>
       <c r="Z32" s="3">
         <v>4100</v>
       </c>
       <c r="AA32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="AB32" s="3">
         <v>5200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>4100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-54900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
-        <v>4100</v>
-      </c>
       <c r="H33" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I33" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J33" s="3">
         <v>9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-38500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>142800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>15100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>14100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>13800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>16300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>13500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>6300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>15100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2937,185 +3013,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-54900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
-        <v>4100</v>
-      </c>
       <c r="H35" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I35" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J35" s="3">
         <v>9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-38500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>142800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>15100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>14100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>13800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>16300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>13500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>6300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>15100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44743</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44652</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44470</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44379</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44288</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44106</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44015</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43924</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43644</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43553</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43371</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43280</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43189</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43007</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3146,8 +3231,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3178,94 +3264,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E41" s="3">
         <v>54000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>80200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>129100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>140800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>121500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>120700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>152300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>235600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>270700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>471500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>510000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>26200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>27600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>30100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>36900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>35400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>27800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>24700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>41200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3350,420 +3440,435 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>212600</v>
+      </c>
+      <c r="E43" s="3">
         <v>218800</v>
       </c>
-      <c r="E43" s="3">
-        <v>215500</v>
-      </c>
       <c r="F43" s="3">
+        <v>216400</v>
+      </c>
+      <c r="G43" s="3">
         <v>237000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>204100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>183300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>213300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>221500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>226800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>271200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>328600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>326200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>320900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>292200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>256800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>230200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>390400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>256300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>373200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>382700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>401900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>316300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>281100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>275100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>261900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>236900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>192800</v>
+      </c>
+      <c r="E44" s="3">
         <v>186500</v>
       </c>
-      <c r="E44" s="3">
-        <v>176500</v>
-      </c>
       <c r="F44" s="3">
+        <v>263700</v>
+      </c>
+      <c r="G44" s="3">
         <v>221800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>214700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>209500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>193100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>195700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>196100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>197300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>185100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>188200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>207300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>193200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>156400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>173100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>163000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>313900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>294600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>303100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>291100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>296600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>367400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>385700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>392600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>390100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>393800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E45" s="3">
         <v>23000</v>
       </c>
-      <c r="E45" s="3">
-        <v>15400</v>
-      </c>
       <c r="F45" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G45" s="3">
         <v>15700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>375800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>36300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>359300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>35400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>33000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>27200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>30700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>29300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>28400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>26600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>460900</v>
+      </c>
+      <c r="E46" s="3">
         <v>482200</v>
       </c>
-      <c r="E46" s="3">
-        <v>431600</v>
-      </c>
       <c r="F46" s="3">
+        <v>428300</v>
+      </c>
+      <c r="G46" s="3">
         <v>505900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>515100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>536400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>546500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>545000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>529200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>557500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>598000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>708600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>808900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>825200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>936500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>953800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>786000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>769000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>773100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>738000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>733500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>761700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>747900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>732900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>724800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>705100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>698600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>10700</v>
-      </c>
-      <c r="F47" s="3">
-        <v>19900</v>
       </c>
       <c r="G47" s="3">
         <v>19900</v>
       </c>
       <c r="H47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="I47" s="3">
         <v>10100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12600</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
@@ -3780,180 +3885,189 @@
       <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>209800</v>
+      </c>
+      <c r="E48" s="3">
         <v>209900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>209000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>206400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>201400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>207100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>208800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>211000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>216700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>219200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>223700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>233300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>231900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>233800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>155600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>152200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>154600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>271800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>137100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>189100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>188200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>186700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>185500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>183100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>182300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>178000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>176500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>741300</v>
+      </c>
+      <c r="E49" s="3">
         <v>747900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>752200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>776200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>364500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>373100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>378800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>383400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>388700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>390300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>397400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>396800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>446400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>444500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>248800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>245100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>251400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>431700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>254700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>442800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>457500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>470000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>468800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>469900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>468200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>462600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>464300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4038,8 +4152,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4124,94 +4241,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>101100</v>
+      </c>
+      <c r="E52" s="3">
         <v>98600</v>
       </c>
-      <c r="E52" s="3">
-        <v>87900</v>
-      </c>
       <c r="F52" s="3">
+        <v>98600</v>
+      </c>
+      <c r="G52" s="3">
         <v>56200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>57200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>53500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>54100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>71900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>73700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>78900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>64700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>67000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>67500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>72000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>71400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>363700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>54000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>298500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>49600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>50200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>54900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>53300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>73500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>73900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>83500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>86900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4296,94 +4419,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1513100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1538700</v>
       </c>
-      <c r="E54" s="3">
-        <v>1491300</v>
-      </c>
       <c r="F54" s="3">
+        <v>1488100</v>
+      </c>
+      <c r="G54" s="3">
         <v>1564500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1158100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1180300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1198500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1221700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1216700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1250700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1306400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1411900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1560100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1577600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1418900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1430300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1564800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1536000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1474100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1431600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1442200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1485800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1455500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1459400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1449100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1429200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1426300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4414,8 +4543,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4446,105 +4576,109 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E57" s="3">
         <v>47200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>60200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>58300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>65700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>70900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>57100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>54100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>149100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>56800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>136000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>136100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>139200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>127600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>112000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>118900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>112100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>116700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>198600</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -4552,11 +4686,11 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>1700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -4564,11 +4698,11 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>1900</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -4576,394 +4710,409 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>1800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>129600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>12100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>11200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8100</v>
-      </c>
-      <c r="X58" s="3">
-        <v>7500</v>
       </c>
       <c r="Y58" s="3">
         <v>7500</v>
       </c>
       <c r="Z58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="AA58" s="3">
         <v>19000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>18900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>120900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>119500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E59" s="3">
         <v>79800</v>
       </c>
-      <c r="E59" s="3">
-        <v>76500</v>
-      </c>
       <c r="F59" s="3">
+        <v>115600</v>
+      </c>
+      <c r="G59" s="3">
         <v>78100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>72900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>70300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>77100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>99100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>95800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>113900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>166300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>140300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>139900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>133100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>131300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>179500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>237900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>157200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>285300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>128700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>109900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>101900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>111200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>126400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>106800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>115900</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>117700</v>
       </c>
       <c r="AD59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>328700</v>
+      </c>
+      <c r="E60" s="3">
         <v>127000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>126600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>115400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>105100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>111700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>120900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>137800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>132300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>159800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>228400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>194300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>198100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>198800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>204000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>238600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>421600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>318400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>298500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>273400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>254100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>248500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>246300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>257300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>244600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>348900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>353900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E61" s="3">
         <v>609300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>561100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>609800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>197500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>197300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>189400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>188400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>187400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>186400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>185400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>285600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>384600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>383600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>187200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>186500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>186300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>280800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>290500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>295600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>316200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>341600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>391700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>394500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>414800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>310100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>296600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E62" s="3">
         <v>118400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>119700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>72800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>76500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>84500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>91800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>108700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>117800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>137300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>146100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>161300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>173900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>197900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>204600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>216400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>298800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>294600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>305800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>224300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>229100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>253300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>181800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>188900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>189300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>196400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>208200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5048,8 +5197,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5134,8 +5286,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5220,94 +5375,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>826800</v>
+      </c>
+      <c r="E66" s="3">
         <v>854700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>807400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>797900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>379200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>393500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>402200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>435000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>437500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>483500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>560000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>641200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>756700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>780300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>595700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>641400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>906700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>893800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>840900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>793400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>799400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>843400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>819800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>840700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>848700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>855400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>858700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5338,8 +5499,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5424,8 +5586,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5510,8 +5675,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5596,8 +5764,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5682,94 +5853,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>678500</v>
+      </c>
+      <c r="E72" s="3">
         <v>682800</v>
       </c>
-      <c r="E72" s="3">
-        <v>688500</v>
-      </c>
       <c r="F72" s="3">
+        <v>685200</v>
+      </c>
+      <c r="G72" s="3">
         <v>749000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>754000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>755500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>750400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>746300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>737200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>730900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>728800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>765700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>809800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>815400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>820700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>786800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>649600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>641700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>610100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>592100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>596300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>586800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>587900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>579600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>568900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>561100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>560200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5854,8 +6031,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5940,8 +6120,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6026,94 +6209,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>684000</v>
+        <v>686300</v>
       </c>
       <c r="E76" s="3">
         <v>684000</v>
       </c>
       <c r="F76" s="3">
+        <v>680800</v>
+      </c>
+      <c r="G76" s="3">
         <v>766600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>778900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>786700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>796300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>786700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>779200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>767200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>746400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>770700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>803400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>797200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>823200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>788900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>658200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>642200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>633200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>638300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>642800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>642300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>635700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>618700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>600400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>573800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>567600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6198,185 +6387,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44743</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44652</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44470</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44379</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44288</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44106</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44015</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43924</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43644</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43553</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43371</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43280</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43189</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43007</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-54900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
-        <v>4100</v>
-      </c>
       <c r="H81" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I81" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J81" s="3">
         <v>9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-38500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>142800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>15100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>14100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>13800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>16300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>13500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>6300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>15100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6407,94 +6605,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E83" s="3">
         <v>13200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>8800</v>
       </c>
       <c r="H83" s="3">
         <v>8800</v>
       </c>
       <c r="I83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J83" s="3">
         <v>9200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>9200</v>
       </c>
       <c r="L83" s="3">
         <v>9200</v>
       </c>
       <c r="M83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="N83" s="3">
         <v>11700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>10500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>10700</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>10600</v>
       </c>
       <c r="Z83" s="3">
         <v>10600</v>
       </c>
       <c r="AA83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="AB83" s="3">
         <v>10200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>11100</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>11200</v>
       </c>
       <c r="AD83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6579,8 +6781,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6665,8 +6870,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6751,8 +6959,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6837,8 +7048,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6923,94 +7137,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>54700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>34600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>28800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>68800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-24000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-55400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-33600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-20900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>22600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>35000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>33700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>36800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>56900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>36100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>44000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>18300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-18400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>37700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7041,94 +7261,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-14800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-11700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7213,8 +7437,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7299,94 +7526,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-447300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-303800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>643100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-8300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-6800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7417,8 +7650,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7447,7 +7681,7 @@
         <v>-5600</v>
       </c>
       <c r="L96" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="M96" s="3">
         <v>-5500</v>
@@ -7459,7 +7693,7 @@
         <v>-5500</v>
       </c>
       <c r="P96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="Q96" s="3">
         <v>-5600</v>
@@ -7492,10 +7726,10 @@
         <v>-5600</v>
       </c>
       <c r="AA96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-4900</v>
       </c>
       <c r="AC96" s="3">
         <v>-4900</v>
@@ -7503,8 +7737,11 @@
       <c r="AD96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7589,8 +7826,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7675,8 +7915,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7761,111 +8004,117 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E100" s="3">
         <v>44000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-56000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>405700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-106600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-104100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>182900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-132300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>19900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-27700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-26000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-30000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-57700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-26200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-31000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-7500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>10000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-14200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-200</v>
       </c>
       <c r="I101" s="3">
         <v>-200</v>
@@ -7874,149 +8123,155 @@
         <v>-200</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>100</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
       <c r="P101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E102" s="3">
         <v>29800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-48900</v>
       </c>
       <c r="G102" s="3">
         <v>-48900</v>
       </c>
       <c r="H102" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="I102" s="3">
         <v>-11700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>23100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-22400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-83300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-34700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-176100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-60300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>512900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>7700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-16500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>15700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>5300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>KAMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,394 +665,407 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44743</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44652</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44470</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44379</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44288</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44106</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44015</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43924</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43644</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43553</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43371</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43280</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43189</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43007</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E8" s="3">
         <v>195200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>194500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>197100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>172000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>160800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>158000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>175100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>179800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>182400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>171600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>185300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>214000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>177900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>207300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>237800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>182700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>174700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>166400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>220900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>157100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>178600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>179400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>473900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>447000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>449000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>435900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>433100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>453500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E9" s="3">
         <v>122300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>127900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>132200</v>
       </c>
-      <c r="G9" s="3">
-        <v>116200</v>
-      </c>
       <c r="H9" s="3">
+        <v>117300</v>
+      </c>
+      <c r="I9" s="3">
         <v>109000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>107700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>116400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>116800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>120400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>118700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>131000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>147100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>121200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>139600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>165200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>121500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>122100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>111900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>147900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>109400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>125200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>126200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>325600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>308600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>314500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>311600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>297700</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>318000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E10" s="3">
         <v>72900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>66600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64900</v>
       </c>
-      <c r="G10" s="3">
-        <v>55800</v>
-      </c>
       <c r="H10" s="3">
+        <v>54700</v>
+      </c>
+      <c r="I10" s="3">
         <v>51800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>50300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>58700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>63000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>66900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>67700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>72600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>61200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>52600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>54500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>73000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>47700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>53400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>53200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>148300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>138400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>134500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>124300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>135400</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>135500</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,40 +1097,41 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
@@ -1173,8 +1187,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,86 +1279,89 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>86000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>42900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>58700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>8400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>11300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2500</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
@@ -1349,33 +1369,36 @@
         <v>0</v>
       </c>
       <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>7200</v>
+        <v>5600</v>
       </c>
       <c r="E15" s="3">
         <v>7200</v>
       </c>
       <c r="F15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G15" s="3">
         <v>7300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2600</v>
       </c>
       <c r="K15" s="3">
         <v>2600</v>
@@ -1383,8 +1406,8 @@
       <c r="L15" s="3">
         <v>2600</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>2600</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1401,8 +1424,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1440,8 +1463,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1496,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E17" s="3">
         <v>177600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>186900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>269300</v>
       </c>
-      <c r="G17" s="3">
-        <v>171600</v>
-      </c>
       <c r="H17" s="3">
+        <v>172700</v>
+      </c>
+      <c r="I17" s="3">
         <v>158900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>155200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>162100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>163900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>167100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>165500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>222900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>251100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>177600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>208800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>220200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>166100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>164100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>154100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>196700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>164100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>171400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>170800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>432500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>417400</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>422500</v>
       </c>
       <c r="AC17" s="3">
         <v>422500</v>
       </c>
       <c r="AD17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="AE17" s="3">
         <v>406400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>422400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E18" s="3">
         <v>17600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-72200</v>
       </c>
-      <c r="G18" s="3">
-        <v>400</v>
-      </c>
       <c r="H18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-37600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-37100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>12300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>24200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-7000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>41400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>29600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>26500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>13400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>26700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1681,186 +1714,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2300</v>
       </c>
       <c r="I20" s="3">
         <v>2300</v>
       </c>
       <c r="J20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2100</v>
       </c>
       <c r="M20" s="3">
         <v>2100</v>
       </c>
       <c r="N20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-4100</v>
       </c>
       <c r="AA20" s="3">
         <v>-4100</v>
       </c>
       <c r="AB20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-3200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-4100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E21" s="3">
         <v>20700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-60000</v>
       </c>
-      <c r="G21" s="3">
-        <v>10100</v>
-      </c>
       <c r="H21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I21" s="3">
         <v>13100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-26400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-25400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>19400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>17300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>29300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>17300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>47900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>36100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>31900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>21000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>33500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1888,8 +1928,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1906,8 +1946,8 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1916,7 +1956,7 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1948,186 +1988,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-73700</v>
       </c>
-      <c r="G23" s="3">
-        <v>800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-38100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-37800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-8900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>37300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>25500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>21300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>10200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>22600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-18700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="P24" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S24" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="T24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="X24" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>6700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>5500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-500</v>
-      </c>
-      <c r="U24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="V24" s="3">
-        <v>6700</v>
-      </c>
-      <c r="W24" s="3">
-        <v>600</v>
-      </c>
-      <c r="X24" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>9200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>7900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>3900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>7500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2215,186 +2264,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-54900</v>
       </c>
-      <c r="G26" s="3">
-        <v>600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-38500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>23500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>16300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>13500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>6300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>15100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-54900</v>
       </c>
-      <c r="G27" s="3">
-        <v>600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-38500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>34200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>15800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>23500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>16300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>13500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>6300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>15100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2482,8 +2540,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2527,37 +2588,37 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>5300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>132600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>7100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>16600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>7800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>10900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>10300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>9100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-9700</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2565,14 +2626,17 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2660,8 +2724,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2749,186 +2816,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E32" s="3">
         <v>10200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2300</v>
       </c>
       <c r="I32" s="3">
         <v>-2300</v>
       </c>
       <c r="J32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-2100</v>
       </c>
       <c r="M32" s="3">
         <v>-2100</v>
       </c>
       <c r="N32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>4100</v>
       </c>
       <c r="AA32" s="3">
         <v>4100</v>
       </c>
       <c r="AB32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="AC32" s="3">
         <v>5200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>3200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>4100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-54900</v>
       </c>
-      <c r="G33" s="3">
-        <v>600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-38500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>39500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>142800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>13500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>15100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>14100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>13800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>16300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>13500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>6300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>15100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3016,191 +3092,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-54900</v>
       </c>
-      <c r="G35" s="3">
-        <v>600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-38500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>39500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>142800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>13500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>15100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>14100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>13800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>16300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>13500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>6300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>15100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44743</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44652</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44470</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44379</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44288</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44106</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44015</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43924</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43644</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43553</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43371</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43280</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43189</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43007</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3232,8 +3317,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3265,97 +3351,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E41" s="3">
         <v>34300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>54000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>80200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>129100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>140800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>121500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>120700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>104400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>152300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>235600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>270700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>471500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>510000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>26200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>27600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>30100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>36900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>35400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>27800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>24700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>41200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3443,364 +3533,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E43" s="3">
         <v>212600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>218800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>216400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>237000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>204100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>183300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>213300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>221500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>226800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>271200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>328600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>326200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>320900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>292200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>256800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>230200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>390400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>256300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>373200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>382700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>401900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>316300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>281100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>275100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>261900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>236900</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>201400</v>
+      </c>
+      <c r="E44" s="3">
         <v>192800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>186500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>263700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>221800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>214700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>209500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>193100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>195700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>196100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>197300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>185100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>188200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>207300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>193200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>156400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>173100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>163000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>313900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>294600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>303100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>291100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>296600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>367400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>385700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>392600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>390100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>393800</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>394200</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E45" s="3">
         <v>21200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>37300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>40400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>375800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>36300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>359300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>35400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>32200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>33000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>27200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>30700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>29300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>28400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>26600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>464600</v>
+      </c>
+      <c r="E46" s="3">
         <v>460900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>482200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>428300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>505900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>515100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>536400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>546500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>545000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>529200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>557500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>598000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>708600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>808900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>825200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>936500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>953800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>786000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>769000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>773100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>738000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>733500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>761700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>747900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>732900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>724800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>705100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>698600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>701500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3810,68 +3915,68 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
         <v>10700</v>
-      </c>
-      <c r="G47" s="3">
-        <v>19900</v>
       </c>
       <c r="H47" s="3">
         <v>19900</v>
       </c>
       <c r="I47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J47" s="3">
         <v>10100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>12600</v>
-      </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>8</v>
@@ -3888,186 +3993,195 @@
       <c r="AE47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E48" s="3">
         <v>209800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>209900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>209000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>206400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>201400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>207100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>208800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>211000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>216700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>219200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>223700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>233300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>231900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>233800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>155600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>152200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>154600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>271800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>137100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>189100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>188200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>186700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>185500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>183100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>182300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>178000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>176500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>178800</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>732500</v>
+      </c>
+      <c r="E49" s="3">
         <v>741300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>747900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>752200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>776200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>364500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>373100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>378800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>383400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>388700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>390300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>397400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>396800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>446400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>444500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>248800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>245100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>251400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>431700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>254700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>442800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>457500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>470000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>468800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>469900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>468200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>462600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>464300</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>481200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4155,8 +4269,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4244,97 +4361,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E52" s="3">
         <v>101100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>98600</v>
       </c>
       <c r="F52" s="3">
         <v>98600</v>
       </c>
       <c r="G52" s="3">
+        <v>98600</v>
+      </c>
+      <c r="H52" s="3">
         <v>56200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>57200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>53500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>54100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>71900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>76500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>78900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>64700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>67000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>67500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>72000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>71400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>363700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>54000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>298500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>49600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>50200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>54900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>53300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>73500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>73900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>83500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>86900</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4422,97 +4545,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1507800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1513100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1538700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1488100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1564500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1158100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1180300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1198500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1221700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1216700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1250700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1306400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1411900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1560100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1577600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1418900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1430300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1564800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1536000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1474100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1431600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1442200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1485800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1455500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1459400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1449100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1429200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1426300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1442100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4544,8 +4673,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4577,111 +4707,115 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E57" s="3">
         <v>49900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>42100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>60200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>53900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>58300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>65700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>70900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>57100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>54100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>149100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>56800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>136000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>136100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>139200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>127600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>112000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>118900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>112100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>116700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>198900</v>
+      </c>
+      <c r="E58" s="3">
         <v>198600</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -4689,11 +4823,11 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>1700</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -4701,11 +4835,11 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>1900</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -4713,406 +4847,421 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>1800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>129600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>12100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>11200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8100</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>7500</v>
       </c>
       <c r="Z58" s="3">
         <v>7500</v>
       </c>
       <c r="AA58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="AB58" s="3">
         <v>19000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>18900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>120900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>119500</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E59" s="3">
         <v>80200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>79800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>115600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>78100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>72900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>70300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>77100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>99100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>95800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>113900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>166300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>140300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>139900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>133100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>131300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>179500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>237900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>157200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>285300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>128700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>109900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>101900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>111200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>126400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>106800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>115900</v>
-      </c>
-      <c r="AD59" s="3">
-        <v>117700</v>
       </c>
       <c r="AE59" s="3">
         <v>117700</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>334500</v>
+      </c>
+      <c r="E60" s="3">
         <v>328700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>127000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>126600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>115400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>105100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>111700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>120900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>137800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>132300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>159800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>228400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>194300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>198100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>198800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>204000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>238600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>421600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>318400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>298500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>273400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>254100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>248500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>246300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>257300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>244600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>348900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>353900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E61" s="3">
         <v>384000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>609300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>561100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>609800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>197500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>197300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>189400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>188400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>187400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>186400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>185400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>285600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>384600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>383600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>187200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>186500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>186300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>280800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>290500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>295600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>316200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>341600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>391700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>394500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>414800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>310100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>296600</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>301600</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E62" s="3">
         <v>114100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>118400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>119700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>72800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>76500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>84500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>91800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>108700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>117800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>137300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>146100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>161300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>173900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>197900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>204600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>216400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>298800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>294600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>305800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>224300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>229100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>253300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>181800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>188900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>189300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>196400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>208200</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>197400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5200,8 +5349,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5289,8 +5441,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5378,97 +5533,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>828500</v>
+      </c>
+      <c r="E66" s="3">
         <v>826800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>854700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>807400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>797900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>379200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>393500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>402200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>435000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>437500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>483500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>560000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>641200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>756700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>780300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>595700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>641400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>906700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>893800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>840900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>793400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>799400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>843400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>819800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>840700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>848700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>855400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>858700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>860400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5500,8 +5661,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5589,8 +5751,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5678,8 +5843,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5767,8 +5935,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5856,97 +6027,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>674300</v>
+      </c>
+      <c r="E72" s="3">
         <v>678500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>682800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>685200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>749000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>754000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>755500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>750400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>746300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>737200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>730900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>728800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>765700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>809800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>815400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>820700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>786800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>649600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>641700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>610100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>592100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>596300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>586800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>587900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>579600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>568900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>561100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>560200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6034,8 +6211,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6123,8 +6303,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6212,97 +6395,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>679300</v>
+      </c>
+      <c r="E76" s="3">
         <v>686300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>684000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>680800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>766600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>778900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>786700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>796300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>786700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>779200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>767200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>746400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>770700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>803400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>797200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>823200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>788900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>658200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>642200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>633200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>638300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>642800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>642300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>635700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>618700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>600400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>573800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>567600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6390,191 +6579,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44743</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44652</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44470</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44379</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44288</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44106</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44015</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43924</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43644</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43553</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43371</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43280</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43189</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43007</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-54900</v>
       </c>
-      <c r="G81" s="3">
-        <v>600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-38500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>39500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>142800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>13500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>15100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>14100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>13800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>16300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>13500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>6300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>15100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6606,97 +6804,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E83" s="3">
         <v>13300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>8800</v>
       </c>
       <c r="I83" s="3">
         <v>8800</v>
       </c>
       <c r="J83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K83" s="3">
         <v>9200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>9200</v>
       </c>
       <c r="M83" s="3">
         <v>9200</v>
       </c>
       <c r="N83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="O83" s="3">
         <v>11700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>10400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>10500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>10700</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>10600</v>
       </c>
       <c r="AA83" s="3">
         <v>10600</v>
       </c>
       <c r="AB83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="AC83" s="3">
         <v>10200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>11100</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>11200</v>
       </c>
       <c r="AE83" s="3">
         <v>11200</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6784,8 +6986,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6873,8 +7078,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6962,8 +7170,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7051,8 +7262,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7140,97 +7354,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E89" s="3">
         <v>24300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>54700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>34600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>28800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>68800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>27000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-55400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-33600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-20900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>22600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>35000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>33700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>36800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>56900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>36100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>44000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>18300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-18400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>37700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7262,97 +7482,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-14800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-11700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7440,8 +7664,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7529,97 +7756,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-447300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-303800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>643100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-8300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-6800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7651,8 +7884,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7684,7 +7918,7 @@
         <v>-5600</v>
       </c>
       <c r="M96" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="N96" s="3">
         <v>-5500</v>
@@ -7696,7 +7930,7 @@
         <v>-5500</v>
       </c>
       <c r="Q96" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="R96" s="3">
         <v>-5600</v>
@@ -7729,10 +7963,10 @@
         <v>-5600</v>
       </c>
       <c r="AB96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-4900</v>
       </c>
       <c r="AD96" s="3">
         <v>-4900</v>
@@ -7740,8 +7974,11 @@
       <c r="AE96" s="3">
         <v>-4900</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7829,8 +8066,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7918,8 +8158,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8007,117 +8250,123 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-37500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>44000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-56000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>405700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-106600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-104100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>182900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-132300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>19900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-27700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-26000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-30000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-57700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-26200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-31000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-7500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>10000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-14200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-200</v>
       </c>
       <c r="J101" s="3">
         <v>-200</v>
@@ -8126,152 +8375,158 @@
         <v>-200</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>100</v>
       </c>
       <c r="P101" s="3">
         <v>100</v>
       </c>
       <c r="Q101" s="3">
+        <v>100</v>
+      </c>
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>29800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-48900</v>
       </c>
       <c r="H102" s="3">
         <v>-48900</v>
       </c>
       <c r="I102" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="J102" s="3">
         <v>-11700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-22400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-41300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-83300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-176100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-60300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>512900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>7700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-16500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>15700</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>5300</v>
       </c>
     </row>
